--- a/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.64454220143065</v>
+        <v>25.64454220143066</v>
       </c>
       <c r="C2">
-        <v>15.50771349915992</v>
+        <v>15.50771349915977</v>
       </c>
       <c r="D2">
-        <v>6.552682286390306</v>
+        <v>6.552682286390228</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.26288157023336</v>
+        <v>63.26288157023352</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.10518501950338</v>
+        <v>13.10518501950336</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.69093396256076</v>
+        <v>16.69093396256068</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.69254623184698</v>
+        <v>23.69254623184695</v>
       </c>
       <c r="C3">
-        <v>14.35623776282867</v>
+        <v>14.35623776282869</v>
       </c>
       <c r="D3">
-        <v>6.249936055829437</v>
+        <v>6.249936055829473</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.29568854310488</v>
+        <v>12.29568854310489</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.4276780193598</v>
+        <v>15.42767801935972</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.44706117462491</v>
+        <v>22.44706117462484</v>
       </c>
       <c r="C4">
-        <v>13.62251450200654</v>
+        <v>13.62251450200643</v>
       </c>
       <c r="D4">
-        <v>6.063601460571436</v>
+        <v>6.06360146057139</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.60276564235741</v>
+        <v>56.60276564235751</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.79222353382076</v>
+        <v>11.79222353382078</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.62305502914714</v>
+        <v>14.62305502914715</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.92716066441817</v>
+        <v>21.92716066441814</v>
       </c>
       <c r="C5">
-        <v>13.31642067757139</v>
+        <v>13.3164206775714</v>
       </c>
       <c r="D5">
-        <v>5.987487065236398</v>
+        <v>5.9874870652364</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.54173746322867</v>
+        <v>55.54173746322871</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.58538899908994</v>
+        <v>11.58538899908993</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.2874574073574</v>
+        <v>14.28745740735744</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.84007076637248</v>
+        <v>21.8400707663723</v>
       </c>
       <c r="C6">
-        <v>13.26515529453211</v>
+        <v>13.26515529453199</v>
       </c>
       <c r="D6">
-        <v>5.974835754053935</v>
+        <v>5.974835754054014</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.3646777574336</v>
+        <v>55.36467775743357</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.55094344869669</v>
+        <v>11.55094344869666</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.23125485822354</v>
+        <v>14.2312548582235</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.44010031029838</v>
+        <v>22.44010031029832</v>
       </c>
       <c r="C7">
-        <v>13.61841560989609</v>
+        <v>13.61841560989611</v>
       </c>
       <c r="D7">
-        <v>6.062575765812025</v>
+        <v>6.06257576581214</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.58851496053218</v>
+        <v>56.58851496053225</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.61856076702674</v>
+        <v>14.61856076702678</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.98088276440492</v>
+        <v>24.98088276440517</v>
       </c>
       <c r="C8">
-        <v>15.11598504815472</v>
+        <v>15.11598504815462</v>
       </c>
       <c r="D8">
-        <v>6.448339343032859</v>
+        <v>6.448339343032903</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.86327668179518</v>
+        <v>61.86327668179552</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.82735019308617</v>
+        <v>12.82735019308625</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.26110753047612</v>
+        <v>16.26110753047616</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.62049491011622</v>
+        <v>29.62049491011616</v>
       </c>
       <c r="C9">
-        <v>17.86094771988666</v>
+        <v>17.86094771988654</v>
       </c>
       <c r="D9">
-        <v>7.205811403326106</v>
+        <v>7.205811403326003</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.80011350415218</v>
+        <v>71.80011350415188</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.8893331743697</v>
+        <v>14.88933317436966</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.27456024182099</v>
+        <v>19.27456024182089</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.87139944034976</v>
+        <v>32.8713994403498</v>
       </c>
       <c r="C10">
-        <v>19.79531754119429</v>
+        <v>19.79531754119421</v>
       </c>
       <c r="D10">
-        <v>7.772012562015204</v>
+        <v>7.772012562015279</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.93536918006609</v>
+        <v>78.93536918006622</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.54646228772258</v>
+        <v>16.54646228772257</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.40023472833098</v>
+        <v>21.40023472833101</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.33130404071307</v>
+        <v>34.33130404071312</v>
       </c>
       <c r="C11">
-        <v>20.66769467549754</v>
+        <v>20.66769467549786</v>
       </c>
       <c r="D11">
-        <v>8.03475870841962</v>
+        <v>8.034758708419574</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.25860389916183</v>
+        <v>82.25860389916168</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.29375573606556</v>
+        <v>17.29375573606557</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.3594464850224</v>
+        <v>22.35944648502253</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.88309682294886</v>
+        <v>34.88309682294885</v>
       </c>
       <c r="C12">
-        <v>20.99809028952464</v>
+        <v>20.9980902895248</v>
       </c>
       <c r="D12">
         <v>8.135360174688181</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.52459169822556</v>
+        <v>83.52459169822542</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.57674587111742</v>
+        <v>17.5767458711174</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.72282009755685</v>
+        <v>22.72282009755687</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.76427296749419</v>
+        <v>34.76427296749452</v>
       </c>
       <c r="C13">
-        <v>20.92691025144432</v>
+        <v>20.92691025144436</v>
       </c>
       <c r="D13">
-        <v>8.113637733031162</v>
+        <v>8.11363773303135</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.25181555140031</v>
+        <v>83.25181555140141</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.51578072862625</v>
+        <v>17.51578072862639</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.64453106067313</v>
+        <v>22.64453106067315</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.3767099776592</v>
+        <v>34.37670997765957</v>
       </c>
       <c r="C14">
-        <v>20.6948680138392</v>
+        <v>20.69486801383922</v>
       </c>
       <c r="D14">
-        <v>8.043010635126175</v>
+        <v>8.043010635126427</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.36270878351705</v>
+        <v>82.36270878351887</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.31703103610976</v>
+        <v>17.31703103610993</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.38933019580172</v>
+        <v>22.38933019580171</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.13923842584754</v>
+        <v>34.13923842584772</v>
       </c>
       <c r="C15">
-        <v>20.55278021452679</v>
+        <v>20.55278021452694</v>
       </c>
       <c r="D15">
-        <v>7.999906025218698</v>
+        <v>7.99990602521876</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.81838710246492</v>
+        <v>81.81838710246568</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.19532437146365</v>
+        <v>17.19532437146372</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.23307376757728</v>
+        <v>22.23307376757736</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.77574412963865</v>
+        <v>32.77574412963848</v>
       </c>
       <c r="C16">
-        <v>19.73824358674275</v>
+        <v>19.73824358674261</v>
       </c>
       <c r="D16">
-        <v>7.75497408773754</v>
+        <v>7.754974087737416</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.72380254045082</v>
+        <v>78.72380254045005</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.49756870660657</v>
+        <v>16.49756870660655</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.33749185038155</v>
+        <v>21.33749185038154</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.93549945565839</v>
+        <v>31.93549945565831</v>
       </c>
       <c r="C17">
-        <v>19.23733051754978</v>
+        <v>19.23733051754987</v>
       </c>
       <c r="D17">
-        <v>7.606266785489668</v>
+        <v>7.60626678548956</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.86932696521173</v>
+        <v>76.8693269652115</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.06844294109989</v>
+        <v>16.0684429410998</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.78688874823735</v>
+        <v>20.78688874823731</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.45030735557245</v>
+        <v>31.45030735557253</v>
       </c>
       <c r="C18">
-        <v>18.94842297518138</v>
+        <v>18.94842297518179</v>
       </c>
       <c r="D18">
-        <v>7.521194737203843</v>
+        <v>7.521194737203775</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.80183142218092</v>
+        <v>75.80183142218134</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.82093657271454</v>
+        <v>15.82093657271459</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.4693738589401</v>
+        <v>20.46937385894008</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.28565783500376</v>
+        <v>31.28565783500393</v>
       </c>
       <c r="C19">
-        <v>18.85043721028802</v>
+        <v>18.85043721028792</v>
       </c>
       <c r="D19">
-        <v>7.492460587547731</v>
+        <v>7.492460587547716</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.44015945551925</v>
+        <v>75.44015945551934</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.73699256065132</v>
+        <v>15.73699256065133</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.36169428358513</v>
+        <v>20.36169428358504</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.02513132325245</v>
+        <v>32.02513132325225</v>
       </c>
       <c r="C20">
-        <v>19.29072861194249</v>
+        <v>19.29072861194252</v>
       </c>
       <c r="D20">
-        <v>7.622047002659962</v>
+        <v>7.62204700265994</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.06680497368777</v>
+        <v>77.06680497368752</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.11418887179969</v>
+        <v>16.11418887179966</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.49055921596958</v>
+        <v>34.49055921596974</v>
       </c>
       <c r="C21">
-        <v>20.76301263689429</v>
+        <v>20.76301263689439</v>
       </c>
       <c r="D21">
-        <v>8.063722097777632</v>
+        <v>8.063722097777809</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.62379411642388</v>
+        <v>82.62379411642478</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.46427331730674</v>
+        <v>22.46427331730675</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.09693095839869</v>
+        <v>36.09693095839878</v>
       </c>
       <c r="C22">
-        <v>21.7262718299498</v>
+        <v>21.72627182994975</v>
       </c>
       <c r="D22">
-        <v>8.35908081418197</v>
+        <v>8.359080814182102</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.31578185368846</v>
+        <v>86.31578185368906</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.20035522222465</v>
+        <v>18.20035522222481</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.23934794042388</v>
+        <v>35.23934794042363</v>
       </c>
       <c r="C23">
-        <v>21.21160614562091</v>
+        <v>21.21160614562068</v>
       </c>
       <c r="D23">
-        <v>8.200678855405675</v>
+        <v>8.200678855405648</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.34291527262954</v>
+        <v>84.34291527262889</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.75961356640895</v>
+        <v>17.75961356640888</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.95767461810192</v>
+        <v>22.95767461810187</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.98461549317419</v>
+        <v>31.98461549317391</v>
       </c>
       <c r="C24">
-        <v>19.26659029892927</v>
+        <v>19.26659029892918</v>
       </c>
       <c r="D24">
-        <v>7.614911478424023</v>
+        <v>7.61491147842393</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.97752956676085</v>
+        <v>76.97752956675987</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.09350968455632</v>
+        <v>16.09350968455619</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.81904792636719</v>
+        <v>20.81904792636722</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.3973958827243</v>
+        <v>28.39739588272428</v>
       </c>
       <c r="C25">
-        <v>17.13573566381746</v>
+        <v>17.13573566381755</v>
       </c>
       <c r="D25">
-        <v>7.000015821053676</v>
+        <v>7.000015821053688</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.1487692026236</v>
+        <v>69.14876920262364</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.28321438927665</v>
+        <v>14.28321438927659</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.47806995493188</v>
+        <v>18.47806995493183</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.64454220143066</v>
+        <v>25.64454220143065</v>
       </c>
       <c r="C2">
-        <v>15.50771349915977</v>
+        <v>15.50771349915992</v>
       </c>
       <c r="D2">
-        <v>6.552682286390228</v>
+        <v>6.552682286390306</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.26288157023352</v>
+        <v>63.26288157023336</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.10518501950336</v>
+        <v>13.10518501950338</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.69093396256068</v>
+        <v>16.69093396256076</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.69254623184695</v>
+        <v>23.69254623184698</v>
       </c>
       <c r="C3">
-        <v>14.35623776282869</v>
+        <v>14.35623776282867</v>
       </c>
       <c r="D3">
-        <v>6.249936055829473</v>
+        <v>6.249936055829437</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.29568854310489</v>
+        <v>12.29568854310488</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.42767801935972</v>
+        <v>15.4276780193598</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.44706117462484</v>
+        <v>22.44706117462491</v>
       </c>
       <c r="C4">
-        <v>13.62251450200643</v>
+        <v>13.62251450200654</v>
       </c>
       <c r="D4">
-        <v>6.06360146057139</v>
+        <v>6.063601460571436</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.60276564235751</v>
+        <v>56.60276564235741</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.79222353382078</v>
+        <v>11.79222353382076</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.62305502914715</v>
+        <v>14.62305502914714</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.92716066441814</v>
+        <v>21.92716066441817</v>
       </c>
       <c r="C5">
-        <v>13.3164206775714</v>
+        <v>13.31642067757139</v>
       </c>
       <c r="D5">
-        <v>5.9874870652364</v>
+        <v>5.987487065236398</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.54173746322871</v>
+        <v>55.54173746322867</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.58538899908993</v>
+        <v>11.58538899908994</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.28745740735744</v>
+        <v>14.2874574073574</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.8400707663723</v>
+        <v>21.84007076637248</v>
       </c>
       <c r="C6">
-        <v>13.26515529453199</v>
+        <v>13.26515529453211</v>
       </c>
       <c r="D6">
-        <v>5.974835754054014</v>
+        <v>5.974835754053935</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.36467775743357</v>
+        <v>55.3646777574336</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.55094344869666</v>
+        <v>11.55094344869669</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.2312548582235</v>
+        <v>14.23125485822354</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.44010031029832</v>
+        <v>22.44010031029838</v>
       </c>
       <c r="C7">
-        <v>13.61841560989611</v>
+        <v>13.61841560989609</v>
       </c>
       <c r="D7">
-        <v>6.06257576581214</v>
+        <v>6.062575765812025</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.58851496053225</v>
+        <v>56.58851496053218</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.61856076702678</v>
+        <v>14.61856076702674</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.98088276440517</v>
+        <v>24.98088276440492</v>
       </c>
       <c r="C8">
-        <v>15.11598504815462</v>
+        <v>15.11598504815472</v>
       </c>
       <c r="D8">
-        <v>6.448339343032903</v>
+        <v>6.448339343032859</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.86327668179552</v>
+        <v>61.86327668179518</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.82735019308625</v>
+        <v>12.82735019308617</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.26110753047616</v>
+        <v>16.26110753047612</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.62049491011616</v>
+        <v>29.62049491011622</v>
       </c>
       <c r="C9">
-        <v>17.86094771988654</v>
+        <v>17.86094771988666</v>
       </c>
       <c r="D9">
-        <v>7.205811403326003</v>
+        <v>7.205811403326106</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.80011350415188</v>
+        <v>71.80011350415218</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.88933317436966</v>
+        <v>14.8893331743697</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.27456024182089</v>
+        <v>19.27456024182099</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.8713994403498</v>
+        <v>32.87139944034976</v>
       </c>
       <c r="C10">
-        <v>19.79531754119421</v>
+        <v>19.79531754119429</v>
       </c>
       <c r="D10">
-        <v>7.772012562015279</v>
+        <v>7.772012562015204</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.93536918006622</v>
+        <v>78.93536918006609</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.54646228772257</v>
+        <v>16.54646228772258</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.40023472833101</v>
+        <v>21.40023472833098</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.33130404071312</v>
+        <v>34.33130404071307</v>
       </c>
       <c r="C11">
-        <v>20.66769467549786</v>
+        <v>20.66769467549754</v>
       </c>
       <c r="D11">
-        <v>8.034758708419574</v>
+        <v>8.03475870841962</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.25860389916168</v>
+        <v>82.25860389916183</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.29375573606557</v>
+        <v>17.29375573606556</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.35944648502253</v>
+        <v>22.3594464850224</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.88309682294885</v>
+        <v>34.88309682294886</v>
       </c>
       <c r="C12">
-        <v>20.9980902895248</v>
+        <v>20.99809028952464</v>
       </c>
       <c r="D12">
         <v>8.135360174688181</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.52459169822542</v>
+        <v>83.52459169822556</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.5767458711174</v>
+        <v>17.57674587111742</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.72282009755687</v>
+        <v>22.72282009755685</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.76427296749452</v>
+        <v>34.76427296749419</v>
       </c>
       <c r="C13">
-        <v>20.92691025144436</v>
+        <v>20.92691025144432</v>
       </c>
       <c r="D13">
-        <v>8.11363773303135</v>
+        <v>8.113637733031162</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.25181555140141</v>
+        <v>83.25181555140031</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.51578072862639</v>
+        <v>17.51578072862625</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.64453106067315</v>
+        <v>22.64453106067313</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.37670997765957</v>
+        <v>34.3767099776592</v>
       </c>
       <c r="C14">
-        <v>20.69486801383922</v>
+        <v>20.6948680138392</v>
       </c>
       <c r="D14">
-        <v>8.043010635126427</v>
+        <v>8.043010635126175</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.36270878351887</v>
+        <v>82.36270878351705</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.31703103610993</v>
+        <v>17.31703103610976</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.38933019580171</v>
+        <v>22.38933019580172</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.13923842584772</v>
+        <v>34.13923842584754</v>
       </c>
       <c r="C15">
-        <v>20.55278021452694</v>
+        <v>20.55278021452679</v>
       </c>
       <c r="D15">
-        <v>7.99990602521876</v>
+        <v>7.999906025218698</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.81838710246568</v>
+        <v>81.81838710246492</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.19532437146372</v>
+        <v>17.19532437146365</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.23307376757736</v>
+        <v>22.23307376757728</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.77574412963848</v>
+        <v>32.77574412963865</v>
       </c>
       <c r="C16">
-        <v>19.73824358674261</v>
+        <v>19.73824358674275</v>
       </c>
       <c r="D16">
-        <v>7.754974087737416</v>
+        <v>7.75497408773754</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.72380254045005</v>
+        <v>78.72380254045082</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.49756870660655</v>
+        <v>16.49756870660657</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.33749185038154</v>
+        <v>21.33749185038155</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.93549945565831</v>
+        <v>31.93549945565839</v>
       </c>
       <c r="C17">
-        <v>19.23733051754987</v>
+        <v>19.23733051754978</v>
       </c>
       <c r="D17">
-        <v>7.60626678548956</v>
+        <v>7.606266785489668</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.8693269652115</v>
+        <v>76.86932696521173</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.0684429410998</v>
+        <v>16.06844294109989</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.78688874823731</v>
+        <v>20.78688874823735</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.45030735557253</v>
+        <v>31.45030735557245</v>
       </c>
       <c r="C18">
-        <v>18.94842297518179</v>
+        <v>18.94842297518138</v>
       </c>
       <c r="D18">
-        <v>7.521194737203775</v>
+        <v>7.521194737203843</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.80183142218134</v>
+        <v>75.80183142218092</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.82093657271459</v>
+        <v>15.82093657271454</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.46937385894008</v>
+        <v>20.4693738589401</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.28565783500393</v>
+        <v>31.28565783500376</v>
       </c>
       <c r="C19">
-        <v>18.85043721028792</v>
+        <v>18.85043721028802</v>
       </c>
       <c r="D19">
-        <v>7.492460587547716</v>
+        <v>7.492460587547731</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.44015945551934</v>
+        <v>75.44015945551925</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.73699256065133</v>
+        <v>15.73699256065132</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.36169428358504</v>
+        <v>20.36169428358513</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.02513132325225</v>
+        <v>32.02513132325245</v>
       </c>
       <c r="C20">
-        <v>19.29072861194252</v>
+        <v>19.29072861194249</v>
       </c>
       <c r="D20">
-        <v>7.62204700265994</v>
+        <v>7.622047002659962</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.06680497368752</v>
+        <v>77.06680497368777</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.11418887179966</v>
+        <v>16.11418887179969</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.49055921596974</v>
+        <v>34.49055921596958</v>
       </c>
       <c r="C21">
-        <v>20.76301263689439</v>
+        <v>20.76301263689429</v>
       </c>
       <c r="D21">
-        <v>8.063722097777809</v>
+        <v>8.063722097777632</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.62379411642478</v>
+        <v>82.62379411642388</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.46427331730675</v>
+        <v>22.46427331730674</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.09693095839878</v>
+        <v>36.09693095839869</v>
       </c>
       <c r="C22">
-        <v>21.72627182994975</v>
+        <v>21.7262718299498</v>
       </c>
       <c r="D22">
-        <v>8.359080814182102</v>
+        <v>8.35908081418197</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.31578185368906</v>
+        <v>86.31578185368846</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.20035522222481</v>
+        <v>18.20035522222465</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.23934794042363</v>
+        <v>35.23934794042388</v>
       </c>
       <c r="C23">
-        <v>21.21160614562068</v>
+        <v>21.21160614562091</v>
       </c>
       <c r="D23">
-        <v>8.200678855405648</v>
+        <v>8.200678855405675</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.34291527262889</v>
+        <v>84.34291527262954</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.75961356640888</v>
+        <v>17.75961356640895</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.95767461810187</v>
+        <v>22.95767461810192</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.98461549317391</v>
+        <v>31.98461549317419</v>
       </c>
       <c r="C24">
-        <v>19.26659029892918</v>
+        <v>19.26659029892927</v>
       </c>
       <c r="D24">
-        <v>7.61491147842393</v>
+        <v>7.614911478424023</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.97752956675987</v>
+        <v>76.97752956676085</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.09350968455619</v>
+        <v>16.09350968455632</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.81904792636722</v>
+        <v>20.81904792636719</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.39739588272428</v>
+        <v>28.3973958827243</v>
       </c>
       <c r="C25">
-        <v>17.13573566381755</v>
+        <v>17.13573566381746</v>
       </c>
       <c r="D25">
-        <v>7.000015821053688</v>
+        <v>7.000015821053676</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.14876920262364</v>
+        <v>69.1487692026236</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.28321438927659</v>
+        <v>14.28321438927665</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.47806995493183</v>
+        <v>18.47806995493188</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.64454220143065</v>
+        <v>25.49104347557422</v>
       </c>
       <c r="C2">
-        <v>15.50771349915992</v>
+        <v>15.31612716590592</v>
       </c>
       <c r="D2">
-        <v>6.552682286390306</v>
+        <v>6.652499976502156</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.26288157023336</v>
+        <v>63.30811522944645</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.038323304367474</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.10518501950338</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.07725139307233</v>
       </c>
       <c r="K2">
-        <v>16.69093396256076</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>16.64309898380991</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.69254623184698</v>
+        <v>23.55094147637667</v>
       </c>
       <c r="C3">
-        <v>14.35623776282867</v>
+        <v>14.16960267685153</v>
       </c>
       <c r="D3">
-        <v>6.249936055829437</v>
+        <v>6.357744273602817</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.17104345122716</v>
+        <v>59.26092393253195</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.055325688379345</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.29568854310488</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.27091863127904</v>
       </c>
       <c r="K3">
-        <v>15.4276780193598</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15.38401891156839</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.44706117462491</v>
+        <v>22.3132193408983</v>
       </c>
       <c r="C4">
-        <v>13.62251450200654</v>
+        <v>13.43881987990795</v>
       </c>
       <c r="D4">
-        <v>6.063601460571436</v>
+        <v>6.17659392187205</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.60276564235741</v>
+        <v>56.7223583198207</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.065840528496386</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.79222353382076</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.76935277506598</v>
       </c>
       <c r="K4">
-        <v>14.62305502914714</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>14.58191309740621</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.92716066441817</v>
+        <v>21.79661773415432</v>
       </c>
       <c r="C5">
-        <v>13.31642067757139</v>
+        <v>13.133902143878</v>
       </c>
       <c r="D5">
-        <v>5.987487065236398</v>
+        <v>6.102662133138539</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.54173746322867</v>
+        <v>55.67406219230009</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.070153470717301</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.58538899908994</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.56328533604256</v>
       </c>
       <c r="K5">
-        <v>14.2874574073574</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>14.24733559032038</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.84007076637248</v>
+        <v>21.71008439721288</v>
       </c>
       <c r="C6">
-        <v>13.26515529453211</v>
+        <v>13.08283075947724</v>
       </c>
       <c r="D6">
-        <v>5.974835754053935</v>
+        <v>6.090377447708228</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.3646777574336</v>
+        <v>55.49915561081414</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.070871570791645</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.55094344869669</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.52896685055124</v>
       </c>
       <c r="K6">
-        <v>14.23125485822354</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>14.19130224587045</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.44010031029838</v>
+        <v>22.30630239141147</v>
       </c>
       <c r="C7">
-        <v>13.61841560989609</v>
+        <v>13.43473693624177</v>
       </c>
       <c r="D7">
-        <v>6.062575765812025</v>
+        <v>6.175597379932787</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.58851496053218</v>
+        <v>56.70827676148942</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.065898569526866</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.78944085973011</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.76658046922395</v>
       </c>
       <c r="K7">
-        <v>14.61856076702674</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>14.57743260856862</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.98088276440492</v>
+        <v>24.83140130920521</v>
       </c>
       <c r="C8">
-        <v>15.11598504815472</v>
+        <v>14.92612889961057</v>
       </c>
       <c r="D8">
-        <v>6.448339343032859</v>
+        <v>6.550854896021549</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.86327668179518</v>
+        <v>61.92345615594533</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.044175983787516</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.82735019308617</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.80051919890329</v>
       </c>
       <c r="K8">
-        <v>16.26110753047612</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>16.21472619595961</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.62049491011622</v>
+        <v>29.44302422594579</v>
       </c>
       <c r="C9">
-        <v>17.86094771988666</v>
+        <v>17.65794592219275</v>
       </c>
       <c r="D9">
-        <v>7.205811403326106</v>
+        <v>7.28985642990648</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.80011350415218</v>
+        <v>71.75942929477253</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.001686551338693</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.8893331743697</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.85225004555675</v>
       </c>
       <c r="K9">
-        <v>19.27456024182099</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>19.21714692509071</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.87139944034976</v>
+        <v>32.67369461402927</v>
       </c>
       <c r="C10">
-        <v>19.79531754119429</v>
+        <v>19.58147654341992</v>
       </c>
       <c r="D10">
-        <v>7.772012562015204</v>
+        <v>7.843563685604849</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.93536918006609</v>
+        <v>78.82671923503948</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.969694655785275</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.54646228772258</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>16.50212710333122</v>
       </c>
       <c r="K10">
-        <v>21.40023472833098</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>21.33357901196296</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.33130404071307</v>
+        <v>34.12407723518145</v>
       </c>
       <c r="C11">
-        <v>20.66769467549754</v>
+        <v>20.44845531809626</v>
       </c>
       <c r="D11">
-        <v>8.03475870841962</v>
+        <v>8.100767195086483</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.25860389916183</v>
+        <v>82.0760594408474</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.954721724539479</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.29375573606556</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>17.24574943414622</v>
       </c>
       <c r="K11">
-        <v>22.3594464850224</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>22.28809922524032</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.88309682294886</v>
+        <v>34.67217362400194</v>
       </c>
       <c r="C12">
-        <v>20.99809028952464</v>
+        <v>20.77671200050948</v>
       </c>
       <c r="D12">
-        <v>8.135360174688181</v>
+        <v>8.19927804748232</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.52459169822556</v>
+        <v>83.33101587374796</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.948963689956925</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.57674587111742</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>17.52727305722597</v>
       </c>
       <c r="K12">
-        <v>22.72282009755685</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>22.6495958596385</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.76427296749419</v>
+        <v>34.5541507676566</v>
       </c>
       <c r="C13">
-        <v>20.92691025144432</v>
+        <v>20.70599739076346</v>
       </c>
       <c r="D13">
-        <v>8.113637733031162</v>
+        <v>8.178005731172139</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.25181555140031</v>
+        <v>83.06062236559492</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.950208227754678</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.51578072862625</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>17.46662761123973</v>
       </c>
       <c r="K13">
-        <v>22.64453106067313</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>22.5717161428613</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.3767099776592</v>
+        <v>34.16918119637727</v>
       </c>
       <c r="C14">
-        <v>20.6948680138392</v>
+        <v>20.4754547803636</v>
       </c>
       <c r="D14">
-        <v>8.043010635126175</v>
+        <v>8.108847045476892</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.36270878351705</v>
+        <v>82.17925963323897</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.954249959150586</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.31703103610976</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>17.26890577619903</v>
       </c>
       <c r="K14">
-        <v>22.38933019580172</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>22.31783074460606</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.13923842584754</v>
+        <v>33.93328479375985</v>
       </c>
       <c r="C15">
-        <v>20.55278021452679</v>
+        <v>20.33427221108033</v>
       </c>
       <c r="D15">
-        <v>7.999906025218698</v>
+        <v>8.066642522115432</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.81838710246492</v>
+        <v>81.63966388102118</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.956713211737192</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.19532437146365</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>17.14781793387567</v>
       </c>
       <c r="K15">
-        <v>22.23307376757728</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>22.16236590155674</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.77574412963865</v>
+        <v>32.57865167684592</v>
       </c>
       <c r="C16">
-        <v>19.73824358674275</v>
+        <v>19.52474386655562</v>
       </c>
       <c r="D16">
-        <v>7.75497408773754</v>
+        <v>7.826889344347624</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.72380254045082</v>
+        <v>78.61715011171718</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.970662514630818</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.49756870660657</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>16.45346418845736</v>
       </c>
       <c r="K16">
-        <v>21.33749185038155</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>21.27113059435095</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.93549945565839</v>
+        <v>31.74373398707385</v>
       </c>
       <c r="C17">
-        <v>19.23733051754978</v>
+        <v>19.02676706998342</v>
       </c>
       <c r="D17">
-        <v>7.606266785489668</v>
+        <v>7.681387910866645</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.86932696521173</v>
+        <v>76.78020359879802</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.979094863639186</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.06844294109989</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>16.02631634016518</v>
       </c>
       <c r="K17">
-        <v>20.78688874823735</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>20.72305098089223</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.45030735557245</v>
+        <v>31.26157929443589</v>
       </c>
       <c r="C18">
-        <v>18.94842297518138</v>
+        <v>18.739506523355</v>
       </c>
       <c r="D18">
-        <v>7.521194737203843</v>
+        <v>7.598173987126104</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.80183142218092</v>
+        <v>75.72282777960416</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.983907442310672</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.82093657271454</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>15.77991434782381</v>
       </c>
       <c r="K18">
-        <v>20.4693738589401</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>20.40694402062724</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.28565783500376</v>
+        <v>31.09795478026694</v>
       </c>
       <c r="C19">
-        <v>18.85043721028802</v>
+        <v>18.64207188432055</v>
       </c>
       <c r="D19">
-        <v>7.492460587547731</v>
+        <v>7.57007170128186</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.44015945551925</v>
+        <v>75.36459159715456</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.985531194829866</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.73699256065132</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>15.69633910937976</v>
       </c>
       <c r="K19">
-        <v>20.36169428358513</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>20.29973442230926</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.02513132325245</v>
+        <v>31.8328018150274</v>
       </c>
       <c r="C20">
-        <v>19.29072861194249</v>
+        <v>19.07985709228872</v>
       </c>
       <c r="D20">
-        <v>7.622047002659962</v>
+        <v>7.696825461931486</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.06680497368777</v>
+        <v>76.97581245768285</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.978201283946382</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.11418887179969</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>16.07185530034664</v>
       </c>
       <c r="K20">
-        <v>20.84557843549916</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>20.78147672652673</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.49055921596958</v>
+        <v>34.28227157930444</v>
       </c>
       <c r="C21">
-        <v>20.76301263689429</v>
+        <v>20.54316177118595</v>
       </c>
       <c r="D21">
-        <v>8.063722097777632</v>
+        <v>8.129127094417896</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.62379411642388</v>
+        <v>82.43807426489603</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.953065454441454</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.37539964005669</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>17.3269747720485</v>
       </c>
       <c r="K21">
-        <v>22.46427331730674</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>22.39239050794333</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.09693095839869</v>
+        <v>35.8776519252813</v>
       </c>
       <c r="C22">
-        <v>21.7262718299498</v>
+        <v>21.49997856101185</v>
       </c>
       <c r="D22">
-        <v>8.35908081418197</v>
+        <v>8.418398535093711</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.31578185368846</v>
+        <v>86.09759989589148</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.936105324070059</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.20035522222465</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>18.14748637393703</v>
       </c>
       <c r="K22">
-        <v>23.52386332566455</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>23.44628597532506</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.23934794042388</v>
+        <v>35.02600591389134</v>
       </c>
       <c r="C23">
-        <v>21.21160614562091</v>
+        <v>20.98881610360047</v>
       </c>
       <c r="D23">
-        <v>8.200678855405675</v>
+        <v>8.263247201093861</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.34291527262954</v>
+        <v>84.14217025635685</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.945217247304284</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.75961356640895</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>17.70916903759111</v>
       </c>
       <c r="K23">
-        <v>22.95767461810192</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>22.88320575951435</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.98461549317419</v>
+        <v>31.79254106243009</v>
       </c>
       <c r="C24">
-        <v>19.26659029892927</v>
+        <v>19.05585818479705</v>
       </c>
       <c r="D24">
-        <v>7.614911478424023</v>
+        <v>7.689844809394669</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.97752956676085</v>
+        <v>76.88738195422474</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.978605379258302</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.09350968455632</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>16.05126978490901</v>
       </c>
       <c r="K24">
-        <v>20.81904792636719</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>20.75506567678612</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.3973958827243</v>
+        <v>28.22732960931043</v>
       </c>
       <c r="C25">
-        <v>17.13573566381746</v>
+        <v>16.93644455401939</v>
       </c>
       <c r="D25">
-        <v>7.000015821053676</v>
+        <v>7.088845679547648</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.1487692026236</v>
+        <v>69.13400014175322</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.013246135203555</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.28321438927665</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14.25037570433357</v>
       </c>
       <c r="K25">
-        <v>18.47806995493188</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>18.42377837126418</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.49104347557422</v>
+        <v>29.71454273162501</v>
       </c>
       <c r="C2">
-        <v>15.31612716590592</v>
+        <v>17.08468986394898</v>
       </c>
       <c r="D2">
-        <v>6.652499976502156</v>
+        <v>4.983505040815213</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.30811522944645</v>
+        <v>41.2245250454268</v>
       </c>
       <c r="G2">
-        <v>2.038323304367474</v>
+        <v>2.06087754798629</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.07725139307233</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.64309898380991</v>
+        <v>8.1076890404391</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>13.39600166201485</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.55094147637667</v>
+        <v>27.59420428002941</v>
       </c>
       <c r="C3">
-        <v>14.16960267685153</v>
+        <v>15.88548137799617</v>
       </c>
       <c r="D3">
-        <v>6.357744273602817</v>
+        <v>5.017700723473217</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.26092393253195</v>
+        <v>39.09133383202551</v>
       </c>
       <c r="G3">
-        <v>2.055325688379345</v>
+        <v>2.074813629296932</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.27091863127904</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.38401891156839</v>
+        <v>7.810369321472516</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>13.60238552774395</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.3132193408983</v>
+        <v>26.32542511450369</v>
       </c>
       <c r="C4">
-        <v>13.43881987990795</v>
+        <v>15.11563878731533</v>
       </c>
       <c r="D4">
-        <v>6.17659392187205</v>
+        <v>5.043416830412466</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.7223583198207</v>
+        <v>37.77893781339992</v>
       </c>
       <c r="G4">
-        <v>2.065840528496386</v>
+        <v>2.08351316959079</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.76935277506598</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.58191309740621</v>
+        <v>7.630121271810207</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>13.734215434558</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.79661773415432</v>
+        <v>25.79756855298373</v>
       </c>
       <c r="C5">
-        <v>13.133902143878</v>
+        <v>14.79328531854137</v>
       </c>
       <c r="D5">
-        <v>6.102662133138539</v>
+        <v>5.054983857654698</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.67406219230009</v>
+        <v>37.24376502879515</v>
       </c>
       <c r="G5">
-        <v>2.070153470717301</v>
+        <v>2.087099037078432</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.56328533604256</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.24733559032038</v>
+        <v>7.557290249438134</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>13.78917088877735</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.71008439721288</v>
+        <v>25.70926811472878</v>
       </c>
       <c r="C6">
-        <v>13.08283075947724</v>
+        <v>14.73923157658437</v>
       </c>
       <c r="D6">
-        <v>6.090377447708228</v>
+        <v>5.05696753737483</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.49915561081414</v>
+        <v>37.15488947839642</v>
       </c>
       <c r="G6">
-        <v>2.070871570791645</v>
+        <v>2.08769706051746</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.52896685055124</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.19130224587045</v>
+        <v>7.545235665479165</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>13.79836940253507</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.30630239141147</v>
+        <v>26.31834993536171</v>
       </c>
       <c r="C7">
-        <v>13.43473693624177</v>
+        <v>15.11132663977564</v>
       </c>
       <c r="D7">
-        <v>6.175597379932787</v>
+        <v>5.043568547503958</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.70827676148942</v>
+        <v>37.77172125615697</v>
       </c>
       <c r="G7">
-        <v>2.065898569526866</v>
+        <v>2.083561358864201</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.76658046922395</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.57743260856862</v>
+        <v>7.629136468109328</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>13.73495164822823</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.83140130920521</v>
+        <v>28.98749144388612</v>
       </c>
       <c r="C8">
-        <v>14.92612889961057</v>
+        <v>16.67802841445058</v>
       </c>
       <c r="D8">
-        <v>6.550854896021549</v>
+        <v>4.994252818689619</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.92345615594533</v>
+        <v>40.48967426982685</v>
       </c>
       <c r="G8">
-        <v>2.044175983787516</v>
+        <v>2.065656158907315</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.80051919890329</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.21472619595961</v>
+        <v>8.004715288211958</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>13.46606838665597</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.44302422594579</v>
+        <v>34.03346330420965</v>
       </c>
       <c r="C9">
-        <v>17.65794592219275</v>
+        <v>19.49508314480762</v>
       </c>
       <c r="D9">
-        <v>7.28985642990648</v>
+        <v>4.940105738184824</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.75942929477253</v>
+        <v>45.79409444327307</v>
       </c>
       <c r="G9">
-        <v>2.001686551338693</v>
+        <v>2.031428449212241</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>14.85225004555675</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.21714692509071</v>
+        <v>8.758473920287713</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>12.98225125510149</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.67369461402927</v>
+        <v>37.50111686864428</v>
       </c>
       <c r="C10">
-        <v>19.58147654341992</v>
+        <v>21.42668175741479</v>
       </c>
       <c r="D10">
-        <v>7.843563685604849</v>
+        <v>4.934495847407725</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.82671923503948</v>
+        <v>49.68271116930227</v>
       </c>
       <c r="G10">
-        <v>1.969694655785275</v>
+        <v>2.006419212136616</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>16.50212710333122</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.33357901196296</v>
+        <v>9.322785768948828</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>12.65858029866111</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.12407723518145</v>
+        <v>39.03392118266405</v>
       </c>
       <c r="C11">
-        <v>20.44845531809626</v>
+        <v>22.28019615778863</v>
       </c>
       <c r="D11">
-        <v>8.100767195086483</v>
+        <v>4.941566989895483</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.0760594408474</v>
+        <v>51.45560385876412</v>
       </c>
       <c r="G11">
-        <v>1.954721724539479</v>
+        <v>1.994962776842508</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>17.24574943414622</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.28809922524032</v>
+        <v>9.582285653965803</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>12.51988087446054</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.67217362400194</v>
+        <v>39.60869406148348</v>
       </c>
       <c r="C12">
-        <v>20.77671200050948</v>
+        <v>22.60026075298499</v>
       </c>
       <c r="D12">
-        <v>8.19927804748232</v>
+        <v>4.945847651370751</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.33101587374796</v>
+        <v>52.12830946156247</v>
       </c>
       <c r="G12">
-        <v>1.948963689956925</v>
+        <v>1.990602019927401</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>17.52727305722597</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.6495958596385</v>
+        <v>9.681033448056223</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>12.46877097184371</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.5541507676566</v>
+        <v>39.48514488339132</v>
       </c>
       <c r="C13">
-        <v>20.70599739076346</v>
+        <v>22.53146034811427</v>
       </c>
       <c r="D13">
-        <v>8.178005731172139</v>
+        <v>4.944850586709636</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.06062236559492</v>
+        <v>51.98335473800858</v>
       </c>
       <c r="G13">
-        <v>1.950208227754678</v>
+        <v>1.991542382457192</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>17.46662761123973</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.5717161428613</v>
+        <v>9.659743300182603</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>12.47971215045556</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.16918119637727</v>
+        <v>39.08131682333995</v>
       </c>
       <c r="C14">
-        <v>20.4754547803636</v>
+        <v>22.30658800491142</v>
       </c>
       <c r="D14">
-        <v>8.108847045476892</v>
+        <v>4.941885660273641</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.17925963323897</v>
+        <v>51.51091521182738</v>
       </c>
       <c r="G14">
-        <v>1.954249959150586</v>
+        <v>1.994604534931399</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>17.26890577619903</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.31783074460606</v>
+        <v>9.590399472585233</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>12.51564650301851</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.93328479375985</v>
+        <v>38.83324734823075</v>
       </c>
       <c r="C15">
-        <v>20.33427221108033</v>
+        <v>22.16845356580931</v>
       </c>
       <c r="D15">
-        <v>8.066642522115432</v>
+        <v>4.940285391201143</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.63966388102118</v>
+        <v>51.22173616092378</v>
       </c>
       <c r="G15">
-        <v>1.956713211737192</v>
+        <v>1.996476907097263</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>17.14781793387567</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.16236590155674</v>
+        <v>9.54798997113852</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>12.5378475348246</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.57865167684592</v>
+        <v>37.40010723403518</v>
       </c>
       <c r="C16">
-        <v>19.52474386655562</v>
+        <v>21.3704348810693</v>
       </c>
       <c r="D16">
-        <v>7.826889344347624</v>
+        <v>4.934245362326874</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.61715011171718</v>
+        <v>49.5669884187448</v>
       </c>
       <c r="G16">
-        <v>1.970662514630818</v>
+        <v>2.007165418158268</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>16.45346418845736</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.27113059435095</v>
+        <v>9.305888991824249</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>12.66783125789232</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.74373398707385</v>
+        <v>36.50997886798024</v>
       </c>
       <c r="C17">
-        <v>19.02676706998342</v>
+        <v>20.87474180662003</v>
       </c>
       <c r="D17">
-        <v>7.681387910866645</v>
+        <v>4.93315051688839</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.78020359879802</v>
+        <v>48.55333527004075</v>
       </c>
       <c r="G17">
-        <v>1.979094863639186</v>
+        <v>2.013694843925637</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>16.02631634016518</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.72305098089223</v>
+        <v>9.158128356181971</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>12.74987724288251</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.26157929443589</v>
+        <v>35.99374514152399</v>
       </c>
       <c r="C18">
-        <v>18.739506523355</v>
+        <v>20.58722920604174</v>
       </c>
       <c r="D18">
-        <v>7.598173987126104</v>
+        <v>4.933411635052738</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.72282777960416</v>
+        <v>47.97061731067698</v>
       </c>
       <c r="G18">
-        <v>1.983907442310672</v>
+        <v>2.017443665167572</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>15.77991434782381</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.40694402062724</v>
+        <v>9.07339636833677</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>12.79785838876019</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.09795478026694</v>
+        <v>35.81820571833974</v>
       </c>
       <c r="C19">
-        <v>18.64207188432055</v>
+        <v>20.4894564151718</v>
       </c>
       <c r="D19">
-        <v>7.57007170128186</v>
+        <v>4.933646897361921</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.36459159715456</v>
+        <v>47.77335259526082</v>
       </c>
       <c r="G19">
-        <v>1.985531194829866</v>
+        <v>2.018712100026303</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>15.69633910937976</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.29973442230926</v>
+        <v>9.044749698191412</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>12.81423482090678</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.8328018150274</v>
+        <v>36.60516996747487</v>
       </c>
       <c r="C20">
-        <v>19.07985709228872</v>
+        <v>20.92775468934052</v>
       </c>
       <c r="D20">
-        <v>7.696825461931486</v>
+        <v>4.933173382890026</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.97581245768285</v>
+        <v>48.66120365301708</v>
       </c>
       <c r="G20">
-        <v>1.978201283946382</v>
+        <v>2.0130005457141</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>16.07185530034664</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.78147672652673</v>
+        <v>9.173830769013838</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>12.74106030044349</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.28227157930444</v>
+        <v>39.20007797140661</v>
       </c>
       <c r="C21">
-        <v>20.54316177118595</v>
+        <v>22.37271951853887</v>
       </c>
       <c r="D21">
-        <v>8.129127094417896</v>
+        <v>4.942711111580771</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.43807426489603</v>
+        <v>51.64963787806695</v>
       </c>
       <c r="G21">
-        <v>1.953065454441454</v>
+        <v>1.993705813576128</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>17.3269747720485</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.39239050794333</v>
+        <v>9.610753571330381</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>12.50505167929502</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.8776519252813</v>
+        <v>40.86343168946264</v>
       </c>
       <c r="C22">
-        <v>21.49997856101185</v>
+        <v>23.29905722169308</v>
       </c>
       <c r="D22">
-        <v>8.418398535093711</v>
+        <v>4.958415282987259</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.09759989589148</v>
+        <v>53.65568024477673</v>
       </c>
       <c r="G22">
-        <v>1.936105324070059</v>
+        <v>1.980958066738685</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>18.14748637393703</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.44628597532506</v>
+        <v>9.899174997050746</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>12.35916053643366</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.02600591389134</v>
+        <v>39.97835949977316</v>
       </c>
       <c r="C23">
-        <v>20.98881610360047</v>
+        <v>22.8061216080373</v>
       </c>
       <c r="D23">
-        <v>8.263247201093861</v>
+        <v>4.949085519213954</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.14217025635685</v>
+        <v>52.5631676686536</v>
       </c>
       <c r="G23">
-        <v>1.945217247304284</v>
+        <v>1.987778546321332</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>17.70916903759111</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.88320575951435</v>
+        <v>9.744940580280236</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>12.43618757530532</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.79254106243009</v>
+        <v>36.56214810237882</v>
       </c>
       <c r="C24">
-        <v>19.05585818479705</v>
+        <v>20.90379548651524</v>
       </c>
       <c r="D24">
-        <v>7.689844809394669</v>
+        <v>4.933160287444628</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.88738195422474</v>
+        <v>48.61243627299377</v>
       </c>
       <c r="G24">
-        <v>1.978605379258302</v>
+        <v>2.013314452811842</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>16.05126978490901</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.75506567678612</v>
+        <v>9.166731035934337</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>12.74504392494419</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.22732960931043</v>
+        <v>32.71259923059915</v>
       </c>
       <c r="C25">
-        <v>16.93644455401939</v>
+        <v>18.75866886943043</v>
       </c>
       <c r="D25">
-        <v>7.088845679547648</v>
+        <v>4.949418228178361</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.13400014175322</v>
+        <v>44.36181256815647</v>
       </c>
       <c r="G25">
-        <v>2.013246135203555</v>
+        <v>2.040631199832869</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>14.25037570433357</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.42377837126418</v>
+        <v>8.552792044432518</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.1080141547689</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
@@ -421,43 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.71454273162501</v>
+        <v>21.37420138972176</v>
       </c>
       <c r="C2">
-        <v>17.08468986394898</v>
+        <v>16.3903736723784</v>
       </c>
       <c r="D2">
-        <v>4.983505040815213</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>3.510420736401485</v>
       </c>
       <c r="F2">
-        <v>41.2245250454268</v>
+        <v>18.78905257168294</v>
       </c>
       <c r="G2">
-        <v>2.06087754798629</v>
+        <v>24.93670382167749</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.118449508053304</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>10.43917934819295</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>8.1076890404391</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
-        <v>13.39600166201485</v>
+        <v>11.04666183642843</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.59420428002941</v>
+        <v>19.97227382628687</v>
       </c>
       <c r="C3">
-        <v>15.88548137799617</v>
+        <v>15.34680742232593</v>
       </c>
       <c r="D3">
-        <v>5.017700723473217</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>3.403083055923729</v>
       </c>
       <c r="F3">
-        <v>39.09133383202551</v>
+        <v>17.94143347856998</v>
       </c>
       <c r="G3">
-        <v>2.074813629296932</v>
+        <v>23.56404625433725</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.027807349372367</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>10.52454005118952</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>7.810369321472516</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
-        <v>13.60238552774395</v>
+        <v>11.14652501658587</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.32542511450369</v>
+        <v>19.06172944377791</v>
       </c>
       <c r="C4">
-        <v>15.11563878731533</v>
+        <v>14.67063443976958</v>
       </c>
       <c r="D4">
-        <v>5.043416830412466</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>3.335287828048508</v>
       </c>
       <c r="F4">
-        <v>37.77893781339992</v>
+        <v>17.42595671270931</v>
       </c>
       <c r="G4">
-        <v>2.08351316959079</v>
+        <v>22.72106678720515</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.981300564130196</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>10.59437891425705</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>7.630121271810207</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>13.734215434558</v>
+        <v>11.21182777150154</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.79756855298373</v>
+        <v>18.67811225766118</v>
       </c>
       <c r="C5">
-        <v>14.79328531854137</v>
+        <v>14.38616928677027</v>
       </c>
       <c r="D5">
-        <v>5.054983857654698</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>3.307212977986553</v>
       </c>
       <c r="F5">
-        <v>37.24376502879515</v>
+        <v>17.21745760876213</v>
       </c>
       <c r="G5">
-        <v>2.087099037078432</v>
+        <v>22.37802582407142</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.964575720033254</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>10.62693366500303</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>7.557290249438134</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
-        <v>13.78917088877735</v>
+        <v>11.23941951303812</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.70926811472878</v>
+        <v>18.61365281324911</v>
       </c>
       <c r="C6">
-        <v>14.73923157658437</v>
+        <v>14.338395271854</v>
       </c>
       <c r="D6">
-        <v>5.05696753737483</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>3.30252498014961</v>
       </c>
       <c r="F6">
-        <v>37.15488947839642</v>
+        <v>17.18294052038152</v>
       </c>
       <c r="G6">
-        <v>2.08769706051746</v>
+        <v>22.32110986862698</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.961930811052756</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>10.63257844896465</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>7.545235665479165</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
-        <v>13.79836940253507</v>
+        <v>11.24405970340084</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.31834993536171</v>
+        <v>19.05660677724142</v>
       </c>
       <c r="C7">
-        <v>15.11132663977564</v>
+        <v>14.66683416353849</v>
       </c>
       <c r="D7">
-        <v>5.043568547503958</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>3.33491097557721</v>
       </c>
       <c r="F7">
-        <v>37.77172125615697</v>
+        <v>17.42313806214956</v>
       </c>
       <c r="G7">
-        <v>2.083561358864201</v>
+        <v>22.71643772732945</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.981066091415522</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>10.5948017522727</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>7.629136468109328</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
-        <v>13.73495164822823</v>
+        <v>11.21219594170817</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.98749144388612</v>
+        <v>20.90110957495672</v>
       </c>
       <c r="C8">
-        <v>16.67802841445058</v>
+        <v>16.03789130295809</v>
       </c>
       <c r="D8">
-        <v>4.994252818689619</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>3.473818453423912</v>
       </c>
       <c r="F8">
-        <v>40.48967426982685</v>
+        <v>18.49594172721468</v>
       </c>
       <c r="G8">
-        <v>2.065656158907315</v>
+        <v>24.46373268656697</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.085255463212313</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>10.46481940640619</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>8.004715288211958</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
-        <v>13.46606838665597</v>
+        <v>11.08025339787286</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>34.03346330420965</v>
+        <v>24.12617159117913</v>
       </c>
       <c r="C9">
-        <v>19.49508314480762</v>
+        <v>18.44676951115595</v>
       </c>
       <c r="D9">
-        <v>4.940105738184824</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>3.730159213059257</v>
       </c>
       <c r="F9">
-        <v>45.79409444327307</v>
+        <v>20.62706426862038</v>
       </c>
       <c r="G9">
-        <v>2.031428449212241</v>
+        <v>27.87028094554758</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.365077755089496</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>10.36137538304649</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>8.758473920287713</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
-        <v>12.98225125510149</v>
+        <v>10.85424187680268</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.50111686864428</v>
+        <v>26.26106312907569</v>
       </c>
       <c r="C10">
-        <v>21.42668175741479</v>
+        <v>20.04862473771182</v>
       </c>
       <c r="D10">
-        <v>4.934495847407725</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>3.907470629456351</v>
       </c>
       <c r="F10">
-        <v>49.68271116930227</v>
+        <v>22.19622634836739</v>
       </c>
       <c r="G10">
-        <v>2.006419212136616</v>
+        <v>30.38475444751062</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.620207055220661</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>10.39588005275894</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>9.322785768948828</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
-        <v>12.65858029866111</v>
+        <v>10.70983239114139</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>39.03392118266405</v>
+        <v>27.18243956517794</v>
       </c>
       <c r="C11">
-        <v>22.28019615778863</v>
+        <v>20.74164304963373</v>
       </c>
       <c r="D11">
-        <v>4.941566989895483</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>3.985532187615554</v>
       </c>
       <c r="F11">
-        <v>51.45560385876412</v>
+        <v>22.90888420341365</v>
       </c>
       <c r="G11">
-        <v>1.994962776842508</v>
+        <v>31.55734501934736</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.747653827421246</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>10.43941128864449</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>9.582285653965803</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
-        <v>12.51988087446054</v>
+        <v>10.64926164402991</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.60869406148348</v>
+        <v>27.52427675603112</v>
       </c>
       <c r="C12">
-        <v>22.60026075298499</v>
+        <v>20.99901388300791</v>
       </c>
       <c r="D12">
-        <v>4.945847651370751</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>4.014704235959901</v>
       </c>
       <c r="F12">
-        <v>52.12830946156247</v>
+        <v>23.17847791995538</v>
       </c>
       <c r="G12">
-        <v>1.990602019927401</v>
+        <v>31.99881238325032</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.797595832955793</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>10.4602007793415</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>9.681033448056223</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
-        <v>12.46877097184371</v>
+        <v>10.62710173529769</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.48514488339132</v>
+        <v>27.45096880653007</v>
       </c>
       <c r="C13">
-        <v>22.53146034811427</v>
+        <v>20.94380832016545</v>
       </c>
       <c r="D13">
-        <v>4.944850586709636</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>4.008438984066395</v>
       </c>
       <c r="F13">
-        <v>51.98335473800858</v>
+        <v>23.1204295317187</v>
       </c>
       <c r="G13">
-        <v>1.991542382457192</v>
+        <v>31.90384849454491</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.786764528328835</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>10.4555272630118</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>9.659743300182603</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
-        <v>12.47971215045556</v>
+        <v>10.63183902868036</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>39.08131682333995</v>
+        <v>27.21070381625745</v>
       </c>
       <c r="C14">
-        <v>22.30658800491142</v>
+        <v>20.76291808658469</v>
       </c>
       <c r="D14">
-        <v>4.941885660273641</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>3.987940044074662</v>
       </c>
       <c r="F14">
-        <v>51.51091521182738</v>
+        <v>22.93106979732907</v>
       </c>
       <c r="G14">
-        <v>1.994604534931399</v>
+        <v>31.59371621330742</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.751728667874399</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>10.44103369159246</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>9.590399472585233</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
-        <v>12.51564650301851</v>
+        <v>10.64742271884536</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.83324734823075</v>
+        <v>27.06261696679713</v>
       </c>
       <c r="C15">
-        <v>22.16845356580931</v>
+        <v>20.65146082700516</v>
       </c>
       <c r="D15">
-        <v>4.940285391201143</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>3.975332908680736</v>
       </c>
       <c r="F15">
-        <v>51.22173616092378</v>
+        <v>22.81504333021834</v>
       </c>
       <c r="G15">
-        <v>1.996476907097263</v>
+        <v>31.40341703606043</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.730488287522208</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>10.43272534369969</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>9.54798997113852</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
-        <v>12.5378475348246</v>
+        <v>10.65707062348316</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.40010723403518</v>
+        <v>26.1998547394379</v>
       </c>
       <c r="C16">
-        <v>21.3704348810693</v>
+        <v>20.00262227567236</v>
       </c>
       <c r="D16">
-        <v>4.934245362326874</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>3.902315542410596</v>
       </c>
       <c r="F16">
-        <v>49.5669884187448</v>
+        <v>22.14961892989926</v>
       </c>
       <c r="G16">
-        <v>2.007165418158268</v>
+        <v>30.30776399810161</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.612111028078463</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>10.393621480065</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>9.305888991824249</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
-        <v>12.66783125789232</v>
+        <v>10.71389726132659</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.50997886798024</v>
+        <v>25.65788771657995</v>
       </c>
       <c r="C17">
-        <v>20.87474180662003</v>
+        <v>19.59549081156742</v>
       </c>
       <c r="D17">
-        <v>4.93315051688839</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>3.856845176071153</v>
       </c>
       <c r="F17">
-        <v>48.55333527004075</v>
+        <v>21.74101478683844</v>
       </c>
       <c r="G17">
-        <v>2.013694843925637</v>
+        <v>29.63105984584616</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.542438933753358</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>10.37698131020065</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>9.158128356181971</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
-        <v>12.74987724288251</v>
+        <v>10.7500979154713</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.99374514152399</v>
+        <v>25.34146958186789</v>
       </c>
       <c r="C18">
-        <v>20.58722920604174</v>
+        <v>19.35795707712582</v>
       </c>
       <c r="D18">
-        <v>4.933411635052738</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>3.83044797680334</v>
       </c>
       <c r="F18">
-        <v>47.97061731067698</v>
+        <v>21.50589076719607</v>
       </c>
       <c r="G18">
-        <v>2.017443665167572</v>
+        <v>29.2576323293379</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.503434910722524</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>10.37001289819451</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>9.07339636833677</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
-        <v>12.79785838876019</v>
+        <v>10.77139901948004</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.81820571833974</v>
+        <v>25.23352709514175</v>
       </c>
       <c r="C19">
-        <v>20.4894564151718</v>
+        <v>19.27695274345576</v>
       </c>
       <c r="D19">
-        <v>4.933646897361921</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>3.821468939189916</v>
       </c>
       <c r="F19">
-        <v>47.77335259526082</v>
+        <v>21.42626764327674</v>
       </c>
       <c r="G19">
-        <v>2.018712100026303</v>
+        <v>29.1322633860885</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.490411130258501</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>10.36809106137299</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>9.044749698191412</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
-        <v>12.81423482090678</v>
+        <v>10.77869238482985</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.60516996747487</v>
+        <v>25.71606609385732</v>
       </c>
       <c r="C20">
-        <v>20.92775468934052</v>
+        <v>19.63917817773818</v>
       </c>
       <c r="D20">
-        <v>4.933173382890026</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>3.861710924189374</v>
       </c>
       <c r="F20">
-        <v>48.66120365301708</v>
+        <v>21.78452325397432</v>
       </c>
       <c r="G20">
-        <v>2.0130005457141</v>
+        <v>29.70326836268428</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.549744630754244</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <v>10.37848109076563</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>9.173830769013838</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
-        <v>12.74106030044349</v>
+        <v>10.74619439307018</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.20007797140661</v>
+        <v>27.28146652106273</v>
       </c>
       <c r="C21">
-        <v>22.37271951853887</v>
+        <v>20.8161866665191</v>
       </c>
       <c r="D21">
-        <v>4.942711111580771</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>3.993971718767777</v>
       </c>
       <c r="F21">
-        <v>51.64963787806695</v>
+        <v>22.98669742428286</v>
       </c>
       <c r="G21">
-        <v>1.993705813576128</v>
+        <v>31.68487919540947</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.761973609185725</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>10.44517162795352</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>9.610753571330381</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
-        <v>12.50505167929502</v>
+        <v>10.64282398425273</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.86343168946264</v>
+        <v>28.26339602299722</v>
       </c>
       <c r="C22">
-        <v>23.29905722169308</v>
+        <v>21.55597369346725</v>
       </c>
       <c r="D22">
-        <v>4.958415282987259</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>4.078144126376518</v>
       </c>
       <c r="F22">
-        <v>53.65568024477673</v>
+        <v>23.85075756092</v>
       </c>
       <c r="G22">
-        <v>1.980958066738685</v>
+        <v>32.96504484496396</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.910491700594479</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>10.51398018778851</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>9.899174997050746</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
-        <v>12.35916053643366</v>
+        <v>10.57981556737355</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.97835949977316</v>
+        <v>27.74305460725695</v>
       </c>
       <c r="C23">
-        <v>22.8061216080373</v>
+        <v>21.16380541809575</v>
       </c>
       <c r="D23">
-        <v>4.949085519213954</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>4.033431424815173</v>
       </c>
       <c r="F23">
-        <v>52.5631676686536</v>
+        <v>23.36542971949255</v>
       </c>
       <c r="G23">
-        <v>1.987778546321332</v>
+        <v>32.28315649514385</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.830313355322271</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>10.47485207780383</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>9.744940580280236</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
-        <v>12.43618757530532</v>
+        <v>10.61301361259034</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.56214810237882</v>
+        <v>25.68977871347491</v>
       </c>
       <c r="C24">
-        <v>20.90379548651524</v>
+        <v>19.61943792805414</v>
       </c>
       <c r="D24">
-        <v>4.933160287444628</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>3.859511914722088</v>
       </c>
       <c r="F24">
-        <v>48.61243627299377</v>
+        <v>21.76485372781348</v>
       </c>
       <c r="G24">
-        <v>2.013314452811842</v>
+        <v>29.67062860501396</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.546438453591925</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+        <v>10.37779497016793</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>9.166731035934337</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
-        <v>12.74504392494419</v>
+        <v>10.74795765584834</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.71259923059915</v>
+        <v>23.29524441087128</v>
       </c>
       <c r="C25">
-        <v>18.75866886943043</v>
+        <v>17.82482408984785</v>
       </c>
       <c r="D25">
-        <v>4.949418228178361</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>3.66266863952047</v>
       </c>
       <c r="F25">
-        <v>44.36181256815647</v>
+        <v>20.04913390200656</v>
       </c>
       <c r="G25">
-        <v>2.040631199832869</v>
+        <v>26.95310296384626</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.280906810581097</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>10.3712711493615</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>8.552792044432518</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
-        <v>13.1080141547689</v>
+        <v>10.91171657363049</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.37420138972176</v>
+        <v>12.74466443703171</v>
       </c>
       <c r="C2">
-        <v>16.3903736723784</v>
+        <v>9.638021098430626</v>
       </c>
       <c r="D2">
-        <v>3.510420736401485</v>
+        <v>3.635263872756191</v>
       </c>
       <c r="F2">
-        <v>18.78905257168294</v>
+        <v>20.32543466251928</v>
       </c>
       <c r="G2">
-        <v>24.93670382167749</v>
+        <v>22.54005554785133</v>
       </c>
       <c r="H2">
-        <v>8.118449508053304</v>
+        <v>12.28054009667334</v>
       </c>
       <c r="I2">
-        <v>10.43917934819295</v>
+        <v>16.67854648320278</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.04666183642843</v>
+        <v>15.67933121680821</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.97227382628687</v>
+        <v>12.0893977438825</v>
       </c>
       <c r="C3">
-        <v>15.34680742232593</v>
+        <v>9.080374938754399</v>
       </c>
       <c r="D3">
-        <v>3.403083055923729</v>
+        <v>3.598498053238155</v>
       </c>
       <c r="F3">
-        <v>17.94143347856998</v>
+        <v>20.23997214437274</v>
       </c>
       <c r="G3">
-        <v>23.56404625433725</v>
+        <v>22.30931844334712</v>
       </c>
       <c r="H3">
-        <v>8.027807349372367</v>
+        <v>12.31745065202186</v>
       </c>
       <c r="I3">
-        <v>10.52454005118952</v>
+        <v>16.78018296761729</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.14652501658587</v>
+        <v>15.71968328220642</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06172944377791</v>
+        <v>11.66940778332275</v>
       </c>
       <c r="C4">
-        <v>14.67063443976958</v>
+        <v>8.718244078861931</v>
       </c>
       <c r="D4">
-        <v>3.335287828048508</v>
+        <v>3.575582800023437</v>
       </c>
       <c r="F4">
-        <v>17.42595671270931</v>
+        <v>20.19585770397381</v>
       </c>
       <c r="G4">
-        <v>22.72106678720515</v>
+        <v>22.17921669237902</v>
       </c>
       <c r="H4">
-        <v>7.981300564130196</v>
+        <v>12.34336436708457</v>
       </c>
       <c r="I4">
-        <v>10.59437891425705</v>
+        <v>16.84772660855484</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.21182777150154</v>
+        <v>15.74632540445379</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67811225766118</v>
+        <v>11.49401176588586</v>
       </c>
       <c r="C5">
-        <v>14.38616928677027</v>
+        <v>8.565754046197336</v>
       </c>
       <c r="D5">
-        <v>3.307212977986553</v>
+        <v>3.566164386655629</v>
       </c>
       <c r="F5">
-        <v>17.21745760876213</v>
+        <v>20.17999620517184</v>
       </c>
       <c r="G5">
-        <v>22.37802582407142</v>
+        <v>22.12917808075074</v>
       </c>
       <c r="H5">
-        <v>7.964575720033254</v>
+        <v>12.35473866293884</v>
       </c>
       <c r="I5">
-        <v>10.62693366500303</v>
+        <v>16.87653751461206</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.23941951303812</v>
+        <v>15.7576520819536</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.61365281324911</v>
+        <v>11.46463719642007</v>
       </c>
       <c r="C6">
-        <v>14.338395271854</v>
+        <v>8.540137616781339</v>
       </c>
       <c r="D6">
-        <v>3.30252498014961</v>
+        <v>3.564595779275534</v>
       </c>
       <c r="F6">
-        <v>17.18294052038152</v>
+        <v>20.17749050013318</v>
       </c>
       <c r="G6">
-        <v>22.32110986862698</v>
+        <v>22.12105096897592</v>
       </c>
       <c r="H6">
-        <v>7.961930811052756</v>
+        <v>12.35667644054389</v>
       </c>
       <c r="I6">
-        <v>10.63257844896465</v>
+        <v>16.88139906679037</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.24405970340084</v>
+        <v>15.75956126139564</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05660677724142</v>
+        <v>11.66705924682604</v>
       </c>
       <c r="C7">
-        <v>14.66683416353849</v>
+        <v>8.716207394796658</v>
       </c>
       <c r="D7">
-        <v>3.33491097557721</v>
+        <v>3.57545609774275</v>
       </c>
       <c r="F7">
-        <v>17.42313806214956</v>
+        <v>20.19563520997981</v>
       </c>
       <c r="G7">
-        <v>22.71643772732945</v>
+        <v>22.17852970806766</v>
       </c>
       <c r="H7">
-        <v>7.981066091415522</v>
+        <v>12.34351447221689</v>
       </c>
       <c r="I7">
-        <v>10.5948017522727</v>
+        <v>16.84810996185164</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.21219594170817</v>
+        <v>15.74647625696813</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.90110957495672</v>
+        <v>12.52249779815499</v>
       </c>
       <c r="C8">
-        <v>16.03789130295809</v>
+        <v>9.449863039232413</v>
       </c>
       <c r="D8">
-        <v>3.473818453423912</v>
+        <v>3.622661023714937</v>
       </c>
       <c r="F8">
-        <v>18.49594172721468</v>
+        <v>20.29424126054191</v>
       </c>
       <c r="G8">
-        <v>24.46373268656697</v>
+        <v>22.45813985031164</v>
       </c>
       <c r="H8">
-        <v>8.085255463212313</v>
+        <v>12.29259039090564</v>
       </c>
       <c r="I8">
-        <v>10.46481940640619</v>
+        <v>16.71252077436454</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.08025339787286</v>
+        <v>15.69285773810003</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.12617159117913</v>
+        <v>14.05305812566807</v>
       </c>
       <c r="C9">
-        <v>18.44676951115595</v>
+        <v>10.73061101368953</v>
       </c>
       <c r="D9">
-        <v>3.730159213059257</v>
+        <v>3.712289548811381</v>
       </c>
       <c r="F9">
-        <v>20.62706426862038</v>
+        <v>20.55316873383083</v>
       </c>
       <c r="G9">
-        <v>27.87028094554758</v>
+        <v>23.09480525934235</v>
       </c>
       <c r="H9">
-        <v>8.365077755089496</v>
+        <v>12.21865245355457</v>
       </c>
       <c r="I9">
-        <v>10.36137538304649</v>
+        <v>16.48766229576887</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.85424187680268</v>
+        <v>15.60248884713949</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.26106312907569</v>
+        <v>15.0806179476739</v>
       </c>
       <c r="C10">
-        <v>20.04862473771182</v>
+        <v>11.57405777934739</v>
       </c>
       <c r="D10">
-        <v>3.907470629456351</v>
+        <v>3.776039179664918</v>
       </c>
       <c r="F10">
-        <v>22.19622634836739</v>
+        <v>20.78208056931259</v>
       </c>
       <c r="G10">
-        <v>30.38475444751062</v>
+        <v>23.61125174877343</v>
       </c>
       <c r="H10">
-        <v>8.620207055220661</v>
+        <v>12.18030621600211</v>
       </c>
       <c r="I10">
-        <v>10.39588005275894</v>
+        <v>16.34783228682168</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.70983239114139</v>
+        <v>15.54506676037344</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.18243956517794</v>
+        <v>15.52591551824397</v>
       </c>
       <c r="C11">
-        <v>20.74164304963373</v>
+        <v>11.93646029109731</v>
       </c>
       <c r="D11">
-        <v>3.985532187615554</v>
+        <v>3.804521171068853</v>
       </c>
       <c r="F11">
-        <v>22.90888420341365</v>
+        <v>20.89426868133451</v>
       </c>
       <c r="G11">
-        <v>31.55734501934736</v>
+        <v>23.85554758248814</v>
       </c>
       <c r="H11">
-        <v>8.747653827421246</v>
+        <v>12.16636360030333</v>
       </c>
       <c r="I11">
-        <v>10.43941128864449</v>
+        <v>16.28980815456292</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.64926164402991</v>
+        <v>15.52088475652916</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.52427675603112</v>
+        <v>15.69128329291728</v>
       </c>
       <c r="C12">
-        <v>20.99901388300791</v>
+        <v>12.0706266229702</v>
       </c>
       <c r="D12">
-        <v>4.014704235959901</v>
+        <v>3.815226892626812</v>
       </c>
       <c r="F12">
-        <v>23.17847791995538</v>
+        <v>20.93787567580343</v>
       </c>
       <c r="G12">
-        <v>31.99881238325032</v>
+        <v>23.94929459306107</v>
       </c>
       <c r="H12">
-        <v>8.797595832955793</v>
+        <v>12.16158975103367</v>
       </c>
       <c r="I12">
-        <v>10.4602007793415</v>
+        <v>16.26864572919364</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.62710173529769</v>
+        <v>15.51200603438204</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.45096880653007</v>
+        <v>15.65581423231649</v>
       </c>
       <c r="C13">
-        <v>20.94380832016545</v>
+        <v>12.04186800519331</v>
       </c>
       <c r="D13">
-        <v>4.008438984066395</v>
+        <v>3.812924855434499</v>
       </c>
       <c r="F13">
-        <v>23.1204295317187</v>
+        <v>20.92843472796377</v>
       </c>
       <c r="G13">
-        <v>31.90384849454491</v>
+        <v>23.92905121541213</v>
       </c>
       <c r="H13">
-        <v>8.786764528328835</v>
+        <v>12.16259534767088</v>
       </c>
       <c r="I13">
-        <v>10.4555272630118</v>
+        <v>16.27316729826335</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.63183902868036</v>
+        <v>15.51390584739528</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.21070381625745</v>
+        <v>15.5395860592895</v>
       </c>
       <c r="C14">
-        <v>20.76291808658469</v>
+        <v>11.94755974149666</v>
       </c>
       <c r="D14">
-        <v>3.987940044074662</v>
+        <v>3.805403566170088</v>
       </c>
       <c r="F14">
-        <v>22.93106979732907</v>
+        <v>20.89783394032118</v>
       </c>
       <c r="G14">
-        <v>31.59371621330742</v>
+        <v>23.86323603563421</v>
       </c>
       <c r="H14">
-        <v>8.751728667874399</v>
+        <v>12.16596070036027</v>
       </c>
       <c r="I14">
-        <v>10.44103369159246</v>
+        <v>16.28805083466681</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.64742271884536</v>
+        <v>15.52014872002508</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.06261696679713</v>
+        <v>15.46796691577912</v>
       </c>
       <c r="C15">
-        <v>20.65146082700516</v>
+        <v>11.88939357332603</v>
       </c>
       <c r="D15">
-        <v>3.975332908680736</v>
+        <v>3.80078601350647</v>
       </c>
       <c r="F15">
-        <v>22.81504333021834</v>
+        <v>20.87923535224519</v>
       </c>
       <c r="G15">
-        <v>31.40341703606043</v>
+        <v>23.8230802263239</v>
       </c>
       <c r="H15">
-        <v>8.730488287522208</v>
+        <v>12.16808802987504</v>
       </c>
       <c r="I15">
-        <v>10.43272534369969</v>
+        <v>16.29727312924132</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.65707062348316</v>
+        <v>15.52400891324106</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.1998547394379</v>
+        <v>15.0510645804989</v>
       </c>
       <c r="C16">
-        <v>20.00262227567236</v>
+        <v>11.54994493319764</v>
       </c>
       <c r="D16">
-        <v>3.902315542410596</v>
+        <v>3.77416693421414</v>
       </c>
       <c r="F16">
-        <v>22.14961892989926</v>
+        <v>20.77490801574631</v>
       </c>
       <c r="G16">
-        <v>30.30776399810161</v>
+        <v>23.59546558791547</v>
       </c>
       <c r="H16">
-        <v>8.612111028078463</v>
+        <v>12.18128806678316</v>
       </c>
       <c r="I16">
-        <v>10.393621480065</v>
+        <v>16.3517372785112</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.71389726132659</v>
+        <v>15.54668610334147</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.65788771657995</v>
+        <v>14.78958056873901</v>
       </c>
       <c r="C17">
-        <v>19.59549081156742</v>
+        <v>11.33624634396774</v>
       </c>
       <c r="D17">
-        <v>3.856845176071153</v>
+        <v>3.757700495595582</v>
       </c>
       <c r="F17">
-        <v>21.74101478683844</v>
+        <v>20.71294602785767</v>
       </c>
       <c r="G17">
-        <v>29.63105984584616</v>
+        <v>23.45815264448116</v>
       </c>
       <c r="H17">
-        <v>8.542438933753358</v>
+        <v>12.19028442727335</v>
       </c>
       <c r="I17">
-        <v>10.37698131020065</v>
+        <v>16.3865846782655</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.7500979154713</v>
+        <v>15.56109428752469</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.34146958186789</v>
+        <v>14.6371008494546</v>
       </c>
       <c r="C18">
-        <v>19.35795707712582</v>
+        <v>11.21132919206371</v>
       </c>
       <c r="D18">
-        <v>3.83044797680334</v>
+        <v>3.748180983795316</v>
       </c>
       <c r="F18">
-        <v>21.50589076719607</v>
+        <v>20.67806756260341</v>
       </c>
       <c r="G18">
-        <v>29.2576323293379</v>
+        <v>23.38006175542476</v>
       </c>
       <c r="H18">
-        <v>8.503434910722524</v>
+        <v>12.19578832077891</v>
       </c>
       <c r="I18">
-        <v>10.37001289819451</v>
+        <v>16.40715327352796</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.77139901948004</v>
+        <v>15.56956408229177</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.23352709514175</v>
+        <v>14.58511886216519</v>
       </c>
       <c r="C19">
-        <v>19.27695274345576</v>
+        <v>11.16869057967295</v>
       </c>
       <c r="D19">
-        <v>3.821468939189916</v>
+        <v>3.744949682784726</v>
       </c>
       <c r="F19">
-        <v>21.42626764327674</v>
+        <v>20.66638992187504</v>
       </c>
       <c r="G19">
-        <v>29.1322633860885</v>
+        <v>23.35377728681092</v>
       </c>
       <c r="H19">
-        <v>8.490411130258501</v>
+        <v>12.19770834576952</v>
       </c>
       <c r="I19">
-        <v>10.36809106137299</v>
+        <v>16.41420745657921</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.77869238482985</v>
+        <v>15.57246318246803</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.71606609385732</v>
+        <v>14.81763193696159</v>
       </c>
       <c r="C20">
-        <v>19.63917817773818</v>
+        <v>11.35920232661442</v>
       </c>
       <c r="D20">
-        <v>3.861710924189374</v>
+        <v>3.759458429502053</v>
       </c>
       <c r="F20">
-        <v>21.78452325397432</v>
+        <v>20.71946352617962</v>
       </c>
       <c r="G20">
-        <v>29.70326836268428</v>
+        <v>23.47267872862628</v>
       </c>
       <c r="H20">
-        <v>8.549744630754244</v>
+        <v>12.18929263672363</v>
       </c>
       <c r="I20">
-        <v>10.37848109076563</v>
+        <v>16.38282069739383</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.74619439307018</v>
+        <v>15.55954161769285</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.28146652106273</v>
+        <v>15.57381398544446</v>
       </c>
       <c r="C21">
-        <v>20.8161866665191</v>
+        <v>11.97534365483709</v>
       </c>
       <c r="D21">
-        <v>3.993971718767777</v>
+        <v>3.807614958131197</v>
       </c>
       <c r="F21">
-        <v>22.98669742428286</v>
+        <v>20.90679192314922</v>
       </c>
       <c r="G21">
-        <v>31.68487919540947</v>
+        <v>23.88253484258715</v>
       </c>
       <c r="H21">
-        <v>8.761973609185725</v>
+        <v>12.16495846594472</v>
       </c>
       <c r="I21">
-        <v>10.44517162795352</v>
+        <v>16.28365713931881</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.64282398425273</v>
+        <v>15.51830748256263</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.26339602299722</v>
+        <v>16.04901574211813</v>
       </c>
       <c r="C22">
-        <v>21.55597369346725</v>
+        <v>12.36014646095991</v>
       </c>
       <c r="D22">
-        <v>4.078144126376518</v>
+        <v>3.838620601412727</v>
       </c>
       <c r="F22">
-        <v>23.85075756092</v>
+        <v>21.03575422330725</v>
       </c>
       <c r="G22">
-        <v>32.96504484496396</v>
+        <v>24.15756064917856</v>
       </c>
       <c r="H22">
-        <v>8.910491700594479</v>
+        <v>12.15200451982343</v>
       </c>
       <c r="I22">
-        <v>10.51398018778851</v>
+        <v>16.22357287705083</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.57981556737355</v>
+        <v>15.49298158454391</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.74305460725695</v>
+        <v>15.79715112755225</v>
       </c>
       <c r="C23">
-        <v>21.16380541809575</v>
+        <v>12.15640739496201</v>
       </c>
       <c r="D23">
-        <v>4.033431424815173</v>
+        <v>3.822116788099317</v>
       </c>
       <c r="F23">
-        <v>23.36542971949255</v>
+        <v>20.96633902553427</v>
       </c>
       <c r="G23">
-        <v>32.28315649514385</v>
+        <v>24.01015542568259</v>
       </c>
       <c r="H23">
-        <v>8.830313355322271</v>
+        <v>12.15864762686804</v>
       </c>
       <c r="I23">
-        <v>10.47485207780383</v>
+        <v>16.25520635973477</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.61301361259034</v>
+        <v>15.50635012781197</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.68977871347491</v>
+        <v>14.80495660164884</v>
       </c>
       <c r="C24">
-        <v>19.61943792805414</v>
+        <v>11.34883033969475</v>
       </c>
       <c r="D24">
-        <v>3.859511914722088</v>
+        <v>3.758663831431929</v>
       </c>
       <c r="F24">
-        <v>21.76485372781348</v>
+        <v>20.7165146441068</v>
       </c>
       <c r="G24">
-        <v>29.67062860501396</v>
+        <v>23.46610882333546</v>
       </c>
       <c r="H24">
-        <v>8.546438453591925</v>
+        <v>12.18973999195352</v>
       </c>
       <c r="I24">
-        <v>10.37779497016793</v>
+        <v>16.38452072911846</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.74795765584834</v>
+        <v>15.56024299923945</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.29524441087128</v>
+        <v>13.65558347332276</v>
       </c>
       <c r="C25">
-        <v>17.82482408984785</v>
+        <v>10.40119845359761</v>
       </c>
       <c r="D25">
-        <v>3.66266863952047</v>
+        <v>3.688389604794724</v>
       </c>
       <c r="F25">
-        <v>20.04913390200656</v>
+        <v>20.47622222298324</v>
       </c>
       <c r="G25">
-        <v>26.95310296384626</v>
+        <v>22.91362101579332</v>
       </c>
       <c r="H25">
-        <v>8.280906810581097</v>
+        <v>12.23586079531475</v>
       </c>
       <c r="I25">
-        <v>10.3712711493615</v>
+        <v>16.54406289934862</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.91171657363049</v>
+        <v>15.62535789394857</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.74466443703171</v>
+        <v>21.37420138972184</v>
       </c>
       <c r="C2">
-        <v>9.638021098430626</v>
+        <v>16.39037367237834</v>
       </c>
       <c r="D2">
-        <v>3.635263872756191</v>
+        <v>3.51042073640152</v>
       </c>
       <c r="F2">
-        <v>20.32543466251928</v>
+        <v>18.78905257168292</v>
       </c>
       <c r="G2">
-        <v>22.54005554785133</v>
+        <v>24.93670382167747</v>
       </c>
       <c r="H2">
-        <v>12.28054009667334</v>
+        <v>8.118449508053297</v>
       </c>
       <c r="I2">
-        <v>16.67854648320278</v>
+        <v>10.43917934819289</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.67933121680821</v>
+        <v>11.0466618364284</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.0893977438825</v>
+        <v>19.97227382628689</v>
       </c>
       <c r="C3">
-        <v>9.080374938754399</v>
+        <v>15.34680742232596</v>
       </c>
       <c r="D3">
-        <v>3.598498053238155</v>
+        <v>3.403083055923685</v>
       </c>
       <c r="F3">
-        <v>20.23997214437274</v>
+        <v>17.94143347856995</v>
       </c>
       <c r="G3">
-        <v>22.30931844334712</v>
+        <v>23.56404625433716</v>
       </c>
       <c r="H3">
-        <v>12.31745065202186</v>
+        <v>8.027807349372326</v>
       </c>
       <c r="I3">
-        <v>16.78018296761729</v>
+        <v>10.52454005118947</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.71968328220642</v>
+        <v>11.14652501658587</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.66940778332275</v>
+        <v>19.06172944377795</v>
       </c>
       <c r="C4">
-        <v>8.718244078861931</v>
+        <v>14.67063443976944</v>
       </c>
       <c r="D4">
-        <v>3.575582800023437</v>
+        <v>3.335287828048602</v>
       </c>
       <c r="F4">
-        <v>20.19585770397381</v>
+        <v>17.42595671270933</v>
       </c>
       <c r="G4">
-        <v>22.17921669237902</v>
+        <v>22.72106678720523</v>
       </c>
       <c r="H4">
-        <v>12.34336436708457</v>
+        <v>7.981300564130202</v>
       </c>
       <c r="I4">
-        <v>16.84772660855484</v>
+        <v>10.59437891425701</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.74632540445379</v>
+        <v>11.21182777150154</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.49401176588586</v>
+        <v>18.67811225766113</v>
       </c>
       <c r="C5">
-        <v>8.565754046197336</v>
+        <v>14.38616928677042</v>
       </c>
       <c r="D5">
-        <v>3.566164386655629</v>
+        <v>3.307212977986531</v>
       </c>
       <c r="F5">
-        <v>20.17999620517184</v>
+        <v>17.21745760876215</v>
       </c>
       <c r="G5">
-        <v>22.12917808075074</v>
+        <v>22.37802582407144</v>
       </c>
       <c r="H5">
-        <v>12.35473866293884</v>
+        <v>7.964575720033316</v>
       </c>
       <c r="I5">
-        <v>16.87653751461206</v>
+        <v>10.62693366500313</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.7576520819536</v>
+        <v>11.23941951303821</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.46463719642007</v>
+        <v>18.61365281324908</v>
       </c>
       <c r="C6">
-        <v>8.540137616781339</v>
+        <v>14.33839527185406</v>
       </c>
       <c r="D6">
-        <v>3.564595779275534</v>
+        <v>3.302524980149645</v>
       </c>
       <c r="F6">
-        <v>20.17749050013318</v>
+        <v>17.18294052038156</v>
       </c>
       <c r="G6">
-        <v>22.12105096897592</v>
+        <v>22.321109868627</v>
       </c>
       <c r="H6">
-        <v>12.35667644054389</v>
+        <v>7.961930811052813</v>
       </c>
       <c r="I6">
-        <v>16.88139906679037</v>
+        <v>10.63257844896473</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.75956126139564</v>
+        <v>11.24405970340083</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.66705924682604</v>
+        <v>19.05660677724143</v>
       </c>
       <c r="C7">
-        <v>8.716207394796658</v>
+        <v>14.66683416353846</v>
       </c>
       <c r="D7">
-        <v>3.57545609774275</v>
+        <v>3.334910975577316</v>
       </c>
       <c r="F7">
-        <v>20.19563520997981</v>
+        <v>17.42313806214952</v>
       </c>
       <c r="G7">
-        <v>22.17852970806766</v>
+        <v>22.71643772732944</v>
       </c>
       <c r="H7">
-        <v>12.34351447221689</v>
+        <v>7.981066091415509</v>
       </c>
       <c r="I7">
-        <v>16.84810996185164</v>
+        <v>10.5948017522727</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.74647625696813</v>
+        <v>11.21219594170818</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.52249779815499</v>
+        <v>20.9011095749568</v>
       </c>
       <c r="C8">
-        <v>9.449863039232413</v>
+        <v>16.03789130295808</v>
       </c>
       <c r="D8">
-        <v>3.622661023714937</v>
+        <v>3.473818453423889</v>
       </c>
       <c r="F8">
-        <v>20.29424126054191</v>
+        <v>18.49594172721471</v>
       </c>
       <c r="G8">
-        <v>22.45813985031164</v>
+        <v>24.46373268656703</v>
       </c>
       <c r="H8">
-        <v>12.29259039090564</v>
+        <v>8.08525546321232</v>
       </c>
       <c r="I8">
-        <v>16.71252077436454</v>
+        <v>10.46481940640619</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.69285773810003</v>
+        <v>11.08025339787285</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.05305812566807</v>
+        <v>24.12617159117912</v>
       </c>
       <c r="C9">
-        <v>10.73061101368953</v>
+        <v>18.44676951115585</v>
       </c>
       <c r="D9">
-        <v>3.712289548811381</v>
+        <v>3.730159213059328</v>
       </c>
       <c r="F9">
-        <v>20.55316873383083</v>
+        <v>20.62706426862043</v>
       </c>
       <c r="G9">
-        <v>23.09480525934235</v>
+        <v>27.87028094554761</v>
       </c>
       <c r="H9">
-        <v>12.21865245355457</v>
+        <v>8.365077755089603</v>
       </c>
       <c r="I9">
-        <v>16.48766229576887</v>
+        <v>10.36137538304653</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.60248884713949</v>
+        <v>10.85424187680267</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.0806179476739</v>
+        <v>26.26106312907583</v>
       </c>
       <c r="C10">
-        <v>11.57405777934739</v>
+        <v>20.04862473771185</v>
       </c>
       <c r="D10">
-        <v>3.776039179664918</v>
+        <v>3.907470629456469</v>
       </c>
       <c r="F10">
-        <v>20.78208056931259</v>
+        <v>22.19622634836738</v>
       </c>
       <c r="G10">
-        <v>23.61125174877343</v>
+        <v>30.38475444751073</v>
       </c>
       <c r="H10">
-        <v>12.18030621600211</v>
+        <v>8.620207055220611</v>
       </c>
       <c r="I10">
-        <v>16.34783228682168</v>
+        <v>10.3958800527588</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.54506676037344</v>
+        <v>10.70983239114136</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.52591551824397</v>
+        <v>27.18243956517793</v>
       </c>
       <c r="C11">
-        <v>11.93646029109731</v>
+        <v>20.74164304963361</v>
       </c>
       <c r="D11">
-        <v>3.804521171068853</v>
+        <v>3.985532187615541</v>
       </c>
       <c r="F11">
-        <v>20.89426868133451</v>
+        <v>22.90888420341367</v>
       </c>
       <c r="G11">
-        <v>23.85554758248814</v>
+        <v>31.55734501934742</v>
       </c>
       <c r="H11">
-        <v>12.16636360030333</v>
+        <v>8.747653827421276</v>
       </c>
       <c r="I11">
-        <v>16.28980815456292</v>
+        <v>10.4394112886445</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.52088475652916</v>
+        <v>10.64926164402991</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.69128329291728</v>
+        <v>27.52427675603121</v>
       </c>
       <c r="C12">
-        <v>12.0706266229702</v>
+        <v>20.99901388300789</v>
       </c>
       <c r="D12">
-        <v>3.815226892626812</v>
+        <v>4.014704235959895</v>
       </c>
       <c r="F12">
-        <v>20.93787567580343</v>
+        <v>23.17847791995542</v>
       </c>
       <c r="G12">
-        <v>23.94929459306107</v>
+        <v>31.99881238325049</v>
       </c>
       <c r="H12">
-        <v>12.16158975103367</v>
+        <v>8.79759583295581</v>
       </c>
       <c r="I12">
-        <v>16.26864572919364</v>
+        <v>10.46020077934146</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.51200603438204</v>
+        <v>10.62710173529763</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.65581423231649</v>
+        <v>27.45096880653013</v>
       </c>
       <c r="C13">
-        <v>12.04186800519331</v>
+        <v>20.9438083201654</v>
       </c>
       <c r="D13">
-        <v>3.812924855434499</v>
+        <v>4.008438984066327</v>
       </c>
       <c r="F13">
-        <v>20.92843472796377</v>
+        <v>23.12042953171873</v>
       </c>
       <c r="G13">
-        <v>23.92905121541213</v>
+        <v>31.903848494545</v>
       </c>
       <c r="H13">
-        <v>12.16259534767088</v>
+        <v>8.786764528328865</v>
       </c>
       <c r="I13">
-        <v>16.27316729826335</v>
+        <v>10.45552726301178</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.51390584739528</v>
+        <v>10.63183902868033</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.5395860592895</v>
+        <v>27.21070381625745</v>
       </c>
       <c r="C14">
-        <v>11.94755974149666</v>
+        <v>20.76291808658468</v>
       </c>
       <c r="D14">
-        <v>3.805403566170088</v>
+        <v>3.987940044074676</v>
       </c>
       <c r="F14">
-        <v>20.89783394032118</v>
+        <v>22.93106979732906</v>
       </c>
       <c r="G14">
-        <v>23.86323603563421</v>
+        <v>31.59371621330739</v>
       </c>
       <c r="H14">
-        <v>12.16596070036027</v>
+        <v>8.751728667874399</v>
       </c>
       <c r="I14">
-        <v>16.28805083466681</v>
+        <v>10.44103369159244</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.52014872002508</v>
+        <v>10.64742271884533</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.46796691577912</v>
+        <v>27.06261696679721</v>
       </c>
       <c r="C15">
-        <v>11.88939357332603</v>
+        <v>20.65146082700521</v>
       </c>
       <c r="D15">
-        <v>3.80078601350647</v>
+        <v>3.975332908680771</v>
       </c>
       <c r="F15">
-        <v>20.87923535224519</v>
+        <v>22.81504333021837</v>
       </c>
       <c r="G15">
-        <v>23.8230802263239</v>
+        <v>31.40341703606054</v>
       </c>
       <c r="H15">
-        <v>12.16808802987504</v>
+        <v>8.730488287522183</v>
       </c>
       <c r="I15">
-        <v>16.29727312924132</v>
+        <v>10.4327253436997</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.52400891324106</v>
+        <v>10.65707062348316</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.0510645804989</v>
+        <v>26.19985473943786</v>
       </c>
       <c r="C16">
-        <v>11.54994493319764</v>
+        <v>20.00262227567244</v>
       </c>
       <c r="D16">
-        <v>3.77416693421414</v>
+        <v>3.902315542410618</v>
       </c>
       <c r="F16">
-        <v>20.77490801574631</v>
+        <v>22.14961892989929</v>
       </c>
       <c r="G16">
-        <v>23.59546558791547</v>
+        <v>30.30776399810164</v>
       </c>
       <c r="H16">
-        <v>12.18128806678316</v>
+        <v>8.612111028078495</v>
       </c>
       <c r="I16">
-        <v>16.3517372785112</v>
+        <v>10.39362148006512</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.54668610334147</v>
+        <v>10.71389726132661</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.78958056873901</v>
+        <v>25.65788771658001</v>
       </c>
       <c r="C17">
-        <v>11.33624634396774</v>
+        <v>19.59549081156757</v>
       </c>
       <c r="D17">
-        <v>3.757700495595582</v>
+        <v>3.856845176071182</v>
       </c>
       <c r="F17">
-        <v>20.71294602785767</v>
+        <v>21.74101478683841</v>
       </c>
       <c r="G17">
-        <v>23.45815264448116</v>
+        <v>29.63105984584627</v>
       </c>
       <c r="H17">
-        <v>12.19028442727335</v>
+        <v>8.542438933753282</v>
       </c>
       <c r="I17">
-        <v>16.3865846782655</v>
+        <v>10.37698131020051</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.56109428752469</v>
+        <v>10.75009791547117</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.6371008494546</v>
+        <v>25.34146958186788</v>
       </c>
       <c r="C18">
-        <v>11.21132919206371</v>
+        <v>19.35795707712577</v>
       </c>
       <c r="D18">
-        <v>3.748180983795316</v>
+        <v>3.830447976803389</v>
       </c>
       <c r="F18">
-        <v>20.67806756260341</v>
+        <v>21.50589076719614</v>
       </c>
       <c r="G18">
-        <v>23.38006175542476</v>
+        <v>29.25763232933799</v>
       </c>
       <c r="H18">
-        <v>12.19578832077891</v>
+        <v>8.50343491072254</v>
       </c>
       <c r="I18">
-        <v>16.40715327352796</v>
+        <v>10.37001289819455</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.56956408229177</v>
+        <v>10.77139901948003</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.58511886216519</v>
+        <v>25.23352709514177</v>
       </c>
       <c r="C19">
-        <v>11.16869057967295</v>
+        <v>19.27695274345568</v>
       </c>
       <c r="D19">
-        <v>3.744949682784726</v>
+        <v>3.82146893918994</v>
       </c>
       <c r="F19">
-        <v>20.66638992187504</v>
+        <v>21.42626764327674</v>
       </c>
       <c r="G19">
-        <v>23.35377728681092</v>
+        <v>29.13226338608851</v>
       </c>
       <c r="H19">
-        <v>12.19770834576952</v>
+        <v>8.490411130258501</v>
       </c>
       <c r="I19">
-        <v>16.41420745657921</v>
+        <v>10.36809106137296</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.57246318246803</v>
+        <v>10.77869238482985</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.81763193696159</v>
+        <v>25.71606609385744</v>
       </c>
       <c r="C20">
-        <v>11.35920232661442</v>
+        <v>19.63917817773812</v>
       </c>
       <c r="D20">
-        <v>3.759458429502053</v>
+        <v>3.861710924189458</v>
       </c>
       <c r="F20">
-        <v>20.71946352617962</v>
+        <v>21.78452325397438</v>
       </c>
       <c r="G20">
-        <v>23.47267872862628</v>
+        <v>29.70326836268438</v>
       </c>
       <c r="H20">
-        <v>12.18929263672363</v>
+        <v>8.549744630754235</v>
       </c>
       <c r="I20">
-        <v>16.38282069739383</v>
+        <v>10.37848109076564</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.55954161769285</v>
+        <v>10.74619439307017</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.57381398544446</v>
+        <v>27.28146652106277</v>
       </c>
       <c r="C21">
-        <v>11.97534365483709</v>
+        <v>20.81618666651912</v>
       </c>
       <c r="D21">
-        <v>3.807614958131197</v>
+        <v>3.993971718767736</v>
       </c>
       <c r="F21">
-        <v>20.90679192314922</v>
+        <v>22.98669742428291</v>
       </c>
       <c r="G21">
-        <v>23.88253484258715</v>
+        <v>31.68487919540954</v>
       </c>
       <c r="H21">
-        <v>12.16495846594472</v>
+        <v>8.761973609185791</v>
       </c>
       <c r="I21">
-        <v>16.28365713931881</v>
+        <v>10.44517162795357</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.51830748256263</v>
+        <v>10.64282398425278</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.04901574211813</v>
+        <v>28.26339602299725</v>
       </c>
       <c r="C22">
-        <v>12.36014646095991</v>
+        <v>21.55597369346721</v>
       </c>
       <c r="D22">
-        <v>3.838620601412727</v>
+        <v>4.078144126376596</v>
       </c>
       <c r="F22">
-        <v>21.03575422330725</v>
+        <v>23.85075756092007</v>
       </c>
       <c r="G22">
-        <v>24.15756064917856</v>
+        <v>32.96504484496406</v>
       </c>
       <c r="H22">
-        <v>12.15200451982343</v>
+        <v>8.91049170059452</v>
       </c>
       <c r="I22">
-        <v>16.22357287705083</v>
+        <v>10.51398018778851</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.49298158454391</v>
+        <v>10.57981556737352</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.79715112755225</v>
+        <v>27.743054607257</v>
       </c>
       <c r="C23">
-        <v>12.15640739496201</v>
+        <v>21.16380541809561</v>
       </c>
       <c r="D23">
-        <v>3.822116788099317</v>
+        <v>4.033431424815267</v>
       </c>
       <c r="F23">
-        <v>20.96633902553427</v>
+        <v>23.36542971949268</v>
       </c>
       <c r="G23">
-        <v>24.01015542568259</v>
+        <v>32.28315649514398</v>
       </c>
       <c r="H23">
-        <v>12.15864762686804</v>
+        <v>8.830313355322353</v>
       </c>
       <c r="I23">
-        <v>16.25520635973477</v>
+        <v>10.47485207780391</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.50635012781197</v>
+        <v>10.61301361259031</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.80495660164884</v>
+        <v>25.68977871347483</v>
       </c>
       <c r="C24">
-        <v>11.34883033969475</v>
+        <v>19.61943792805413</v>
       </c>
       <c r="D24">
-        <v>3.758663831431929</v>
+        <v>3.859511914722102</v>
       </c>
       <c r="F24">
-        <v>20.7165146441068</v>
+        <v>21.76485372781353</v>
       </c>
       <c r="G24">
-        <v>23.46610882333546</v>
+        <v>29.6706286050139</v>
       </c>
       <c r="H24">
-        <v>12.18973999195352</v>
+        <v>8.546438453592</v>
       </c>
       <c r="I24">
-        <v>16.38452072911846</v>
+        <v>10.37779497016805</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.56024299923945</v>
+        <v>10.74795765584839</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.65558347332276</v>
+        <v>23.29524441087116</v>
       </c>
       <c r="C25">
-        <v>10.40119845359761</v>
+        <v>17.82482408984787</v>
       </c>
       <c r="D25">
-        <v>3.688389604794724</v>
+        <v>3.662668639520581</v>
       </c>
       <c r="F25">
-        <v>20.47622222298324</v>
+        <v>20.0491339020066</v>
       </c>
       <c r="G25">
-        <v>22.91362101579332</v>
+        <v>26.95310296384629</v>
       </c>
       <c r="H25">
-        <v>12.23586079531475</v>
+        <v>8.280906810581207</v>
       </c>
       <c r="I25">
-        <v>16.54406289934862</v>
+        <v>10.3712711493617</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.62535789394857</v>
+        <v>10.91171657363058</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,844 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.37420138972184</v>
+        <v>22.69355966839445</v>
       </c>
       <c r="C2">
-        <v>16.39037367237834</v>
+        <v>15.09930388627265</v>
       </c>
       <c r="D2">
-        <v>3.51042073640152</v>
+        <v>3.858664686853291</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>18.78905257168292</v>
+        <v>24.62017836719498</v>
       </c>
       <c r="G2">
-        <v>24.93670382167747</v>
+        <v>34.61335682666436</v>
       </c>
       <c r="H2">
-        <v>8.118449508053297</v>
+        <v>1.60113186807128</v>
       </c>
       <c r="I2">
-        <v>10.43917934819289</v>
+        <v>2.804015458617058</v>
+      </c>
+      <c r="J2">
+        <v>10.90533092681454</v>
       </c>
       <c r="K2">
+        <v>17.09578093135398</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.0466618364284</v>
+        <v>9.070501569226337</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.07727549270773</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.97227382628689</v>
+        <v>21.19574146057265</v>
       </c>
       <c r="C3">
-        <v>15.34680742232596</v>
+        <v>14.26507892429497</v>
       </c>
       <c r="D3">
-        <v>3.403083055923685</v>
+        <v>3.812831769698681</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17.94143347856995</v>
+        <v>23.60035453786775</v>
       </c>
       <c r="G3">
-        <v>23.56404625433716</v>
+        <v>32.98980983199205</v>
       </c>
       <c r="H3">
-        <v>8.027807349372326</v>
+        <v>1.75202227068499</v>
       </c>
       <c r="I3">
-        <v>10.52454005118947</v>
+        <v>2.605833825534199</v>
+      </c>
+      <c r="J3">
+        <v>10.69287661821311</v>
       </c>
       <c r="K3">
+        <v>16.85278942665402</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.14652501658587</v>
+        <v>8.687662092237382</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.21832023459998</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06172944377795</v>
+        <v>20.23143842651629</v>
       </c>
       <c r="C4">
-        <v>14.67063443976944</v>
+        <v>13.73056990748929</v>
       </c>
       <c r="D4">
-        <v>3.335287828048602</v>
+        <v>3.783783671507933</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>17.42595671270933</v>
+        <v>22.96245370590832</v>
       </c>
       <c r="G4">
-        <v>22.72106678720523</v>
+        <v>31.96623156238949</v>
       </c>
       <c r="H4">
-        <v>7.981300564130202</v>
+        <v>1.900076610665682</v>
       </c>
       <c r="I4">
-        <v>10.59437891425701</v>
+        <v>2.480768451498772</v>
+      </c>
+      <c r="J4">
+        <v>10.56431606501569</v>
       </c>
       <c r="K4">
+        <v>16.70606659521227</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.21182777150154</v>
+        <v>8.443618155413141</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.30651043398905</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67811225766113</v>
+        <v>19.81785197935713</v>
       </c>
       <c r="C5">
-        <v>14.38616928677042</v>
+        <v>13.51314038207616</v>
       </c>
       <c r="D5">
-        <v>3.307212977986531</v>
+        <v>3.772450988675614</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>17.21745760876215</v>
+        <v>22.68885548411606</v>
       </c>
       <c r="G5">
-        <v>22.37802582407144</v>
+        <v>31.52278601783979</v>
       </c>
       <c r="H5">
-        <v>7.964575720033316</v>
+        <v>1.962083233260332</v>
       </c>
       <c r="I5">
-        <v>10.62693366500313</v>
+        <v>2.520370207596367</v>
+      </c>
+      <c r="J5">
+        <v>10.50863060172764</v>
       </c>
       <c r="K5">
+        <v>16.638582818304</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.23941951303821</v>
+        <v>8.341715745871042</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.34292848688241</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.61365281324908</v>
+        <v>19.74008867898161</v>
       </c>
       <c r="C6">
-        <v>14.33839527185406</v>
+        <v>13.48398233906548</v>
       </c>
       <c r="D6">
-        <v>3.302524980149645</v>
+        <v>3.771454880719563</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>17.18294052038156</v>
+        <v>22.62976135558494</v>
       </c>
       <c r="G6">
-        <v>22.321109868627</v>
+        <v>31.4241661153468</v>
       </c>
       <c r="H6">
-        <v>7.961930811052813</v>
+        <v>1.972945321337947</v>
       </c>
       <c r="I6">
-        <v>10.63257844896473</v>
+        <v>2.534343627891677</v>
+      </c>
+      <c r="J6">
+        <v>10.49476085319503</v>
       </c>
       <c r="K6">
+        <v>16.61723284126687</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.24405970340083</v>
+        <v>8.324336086861832</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.34909710353972</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05660677724143</v>
+        <v>20.20391508220645</v>
       </c>
       <c r="C7">
-        <v>14.66683416353846</v>
+        <v>13.74717584841254</v>
       </c>
       <c r="D7">
-        <v>3.334910975577316</v>
+        <v>3.786103072234499</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>17.42313806214952</v>
+        <v>22.92236904818822</v>
       </c>
       <c r="G7">
-        <v>22.71643772732944</v>
+        <v>31.89408828033261</v>
       </c>
       <c r="H7">
-        <v>7.981066091415509</v>
+        <v>1.902221628571059</v>
       </c>
       <c r="I7">
-        <v>10.5948017522727</v>
+        <v>2.482384851333884</v>
+      </c>
+      <c r="J7">
+        <v>10.55092967576536</v>
       </c>
       <c r="K7">
+        <v>16.67746662377046</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.21219594170818</v>
+        <v>8.441374789573718</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.30734071784815</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.9011095749568</v>
+        <v>22.15199990743986</v>
       </c>
       <c r="C8">
-        <v>16.03789130295808</v>
+        <v>14.84055174464599</v>
       </c>
       <c r="D8">
-        <v>3.473818453423889</v>
+        <v>3.846392815989128</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>18.49594172721471</v>
+        <v>24.22535198604306</v>
       </c>
       <c r="G8">
-        <v>24.46373268656703</v>
+        <v>33.97666375982264</v>
       </c>
       <c r="H8">
-        <v>8.08525546321232</v>
+        <v>1.599975883921149</v>
       </c>
       <c r="I8">
-        <v>10.46481940640619</v>
+        <v>2.738560311410837</v>
+      </c>
+      <c r="J8">
+        <v>10.81538405977477</v>
       </c>
       <c r="K8">
+        <v>16.97549632910684</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.08025339787285</v>
+        <v>8.939334707672504</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.12638390699806</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.12617159117912</v>
+        <v>25.66505887060141</v>
       </c>
       <c r="C9">
-        <v>18.44676951115585</v>
+        <v>16.77491389648546</v>
       </c>
       <c r="D9">
-        <v>3.730159213059328</v>
+        <v>3.952814763887825</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>20.62706426862043</v>
+        <v>26.73509101928723</v>
       </c>
       <c r="G9">
-        <v>27.87028094554761</v>
+        <v>37.93912780988018</v>
       </c>
       <c r="H9">
-        <v>8.365077755089603</v>
+        <v>2.065170969113252</v>
       </c>
       <c r="I9">
-        <v>10.36137538304653</v>
+        <v>3.212733325011203</v>
+      </c>
+      <c r="J9">
+        <v>11.36935958360321</v>
       </c>
       <c r="K9">
+        <v>17.62747758837706</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.85424187680267</v>
+        <v>9.843266214481572</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>11.7825136313979</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.26106312907583</v>
+        <v>27.87515428783681</v>
       </c>
       <c r="C10">
-        <v>20.04862473771185</v>
+        <v>18.17200182523281</v>
       </c>
       <c r="D10">
-        <v>3.907470629456469</v>
+        <v>4.041435850072049</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>22.19622634836738</v>
+        <v>28.33929260549808</v>
       </c>
       <c r="G10">
-        <v>30.38475444751073</v>
+        <v>40.40429701804295</v>
       </c>
       <c r="H10">
-        <v>8.620207055220611</v>
+        <v>2.427778491114843</v>
       </c>
       <c r="I10">
-        <v>10.3958800527588</v>
+        <v>3.539826064239642</v>
+      </c>
+      <c r="J10">
+        <v>11.72206685870752</v>
       </c>
       <c r="K10">
+        <v>17.98183369276756</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.70983239114136</v>
+        <v>10.27748359545875</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.54477900906817</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.18243956517793</v>
+        <v>28.10098641017018</v>
       </c>
       <c r="C11">
-        <v>20.74164304963361</v>
+        <v>19.47149363598586</v>
       </c>
       <c r="D11">
-        <v>3.985532187615541</v>
+        <v>4.217474628926708</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>22.90888420341367</v>
+        <v>27.75501190535121</v>
       </c>
       <c r="G11">
-        <v>31.55734501934742</v>
+        <v>39.19022347850895</v>
       </c>
       <c r="H11">
-        <v>8.747653827421276</v>
+        <v>3.185511789171924</v>
       </c>
       <c r="I11">
-        <v>10.4394112886445</v>
+        <v>3.627062581197215</v>
+      </c>
+      <c r="J11">
+        <v>11.38998013095267</v>
       </c>
       <c r="K11">
+        <v>17.0463644718052</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.64926164402991</v>
+        <v>8.953782653384849</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.53379521226178</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.52427675603121</v>
+        <v>27.8646140867993</v>
       </c>
       <c r="C12">
-        <v>20.99901388300789</v>
+        <v>20.27262554016864</v>
       </c>
       <c r="D12">
-        <v>4.014704235959895</v>
+        <v>4.359717279530215</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>23.17847791995542</v>
+        <v>26.95737319896469</v>
       </c>
       <c r="G12">
-        <v>31.99881238325049</v>
+        <v>37.7097639791122</v>
       </c>
       <c r="H12">
-        <v>8.79759583295581</v>
+        <v>4.353909265890534</v>
       </c>
       <c r="I12">
-        <v>10.46020077934146</v>
+        <v>3.635485221987658</v>
+      </c>
+      <c r="J12">
+        <v>11.04496265784994</v>
       </c>
       <c r="K12">
+        <v>16.21577207361364</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.62710173529763</v>
+        <v>7.826334843164644</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.60452677322941</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.45096880653013</v>
+        <v>27.22563804315477</v>
       </c>
       <c r="C13">
-        <v>20.9438083201654</v>
+        <v>20.78359924187907</v>
       </c>
       <c r="D13">
-        <v>4.008438984066327</v>
+        <v>4.486504849045103</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>23.12042953171873</v>
+        <v>25.87424837840653</v>
       </c>
       <c r="G13">
-        <v>31.903848494545</v>
+        <v>35.80101041416056</v>
       </c>
       <c r="H13">
-        <v>8.786764528328865</v>
+        <v>5.622046013249246</v>
       </c>
       <c r="I13">
-        <v>10.45552726301178</v>
+        <v>3.585962535727345</v>
+      </c>
+      <c r="J13">
+        <v>10.64524448149238</v>
       </c>
       <c r="K13">
+        <v>15.37015648777837</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.63183902868033</v>
+        <v>6.803065152589364</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.73682843518445</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.21070381625745</v>
+        <v>26.58200825354983</v>
       </c>
       <c r="C14">
-        <v>20.76291808658468</v>
+        <v>21.02294938188903</v>
       </c>
       <c r="D14">
-        <v>3.987940044074676</v>
+        <v>4.570408779405991</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>22.93106979732906</v>
+        <v>24.96490491660233</v>
       </c>
       <c r="G14">
-        <v>31.59371621330739</v>
+        <v>34.22972810712474</v>
       </c>
       <c r="H14">
-        <v>8.751728667874399</v>
+        <v>6.544098794824961</v>
       </c>
       <c r="I14">
-        <v>10.44103369159244</v>
+        <v>3.526230719979992</v>
+      </c>
+      <c r="J14">
+        <v>10.33560226172095</v>
       </c>
       <c r="K14">
+        <v>14.76719280038911</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.64742271884533</v>
+        <v>6.183678430296887</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>11.85878201539517</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.06261696679721</v>
+        <v>26.32975170767176</v>
       </c>
       <c r="C15">
-        <v>20.65146082700521</v>
+        <v>21.02561112967958</v>
       </c>
       <c r="D15">
-        <v>3.975332908680771</v>
+        <v>4.587088628156988</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>22.81504333021837</v>
+        <v>24.66959242707114</v>
       </c>
       <c r="G15">
-        <v>31.40341703606054</v>
+        <v>33.73133310614816</v>
       </c>
       <c r="H15">
-        <v>8.730488287522183</v>
+        <v>6.753789226559737</v>
       </c>
       <c r="I15">
-        <v>10.4327253436997</v>
+        <v>3.4995239942823</v>
+      </c>
+      <c r="J15">
+        <v>10.24504041061455</v>
       </c>
       <c r="K15">
+        <v>14.60985426539906</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.65707062348316</v>
+        <v>6.046611609499623</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.89826403582555</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.19985473943786</v>
+        <v>25.49311437256254</v>
       </c>
       <c r="C16">
-        <v>20.00262227567244</v>
+        <v>20.39804893641718</v>
       </c>
       <c r="D16">
-        <v>3.902315542410618</v>
+        <v>4.524238629922016</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>22.14961892989929</v>
+        <v>24.11924758320869</v>
       </c>
       <c r="G16">
-        <v>30.30776399810164</v>
+        <v>32.90307301969229</v>
       </c>
       <c r="H16">
-        <v>8.612111028078495</v>
+        <v>6.479949765475139</v>
       </c>
       <c r="I16">
-        <v>10.39362148006512</v>
+        <v>3.371419112950301</v>
+      </c>
+      <c r="J16">
+        <v>10.15437048319346</v>
       </c>
       <c r="K16">
+        <v>14.60254263958985</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.71389726132661</v>
+        <v>6.020758362781698</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.95694370626493</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.65788771658001</v>
+        <v>25.19726997224351</v>
       </c>
       <c r="C17">
-        <v>19.59549081156757</v>
+        <v>19.77197587501123</v>
       </c>
       <c r="D17">
-        <v>3.856845176071182</v>
+        <v>4.429801390118929</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>21.74101478683841</v>
+        <v>24.19885506248287</v>
       </c>
       <c r="G17">
-        <v>29.63105984584627</v>
+        <v>33.13843516507207</v>
       </c>
       <c r="H17">
-        <v>8.542438933753282</v>
+        <v>5.729839951420955</v>
       </c>
       <c r="I17">
-        <v>10.37698131020051</v>
+        <v>3.304710154189215</v>
+      </c>
+      <c r="J17">
+        <v>10.25317902362774</v>
       </c>
       <c r="K17">
+        <v>14.91753492250355</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.75009791547117</v>
+        <v>6.310805697836786</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11.93877440318873</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.34146958186788</v>
+        <v>25.36249061659863</v>
       </c>
       <c r="C18">
-        <v>19.35795707712577</v>
+        <v>19.07158589743266</v>
       </c>
       <c r="D18">
-        <v>3.830447976803389</v>
+        <v>4.300602860869246</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>21.50589076719614</v>
+        <v>24.85347630480621</v>
       </c>
       <c r="G18">
-        <v>29.25763232933799</v>
+        <v>34.36122483356125</v>
       </c>
       <c r="H18">
-        <v>8.50343491072254</v>
+        <v>4.523606242785048</v>
       </c>
       <c r="I18">
-        <v>10.37001289819455</v>
+        <v>3.283589775971516</v>
+      </c>
+      <c r="J18">
+        <v>10.53282391683916</v>
       </c>
       <c r="K18">
+        <v>15.56895845940954</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.77139901948003</v>
+        <v>7.025566974312279</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>11.86272083149913</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.23352709514177</v>
+        <v>25.85177575014392</v>
       </c>
       <c r="C19">
-        <v>19.27695274345568</v>
+        <v>18.41215994312366</v>
       </c>
       <c r="D19">
-        <v>3.82146893918994</v>
+        <v>4.170254433662074</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>21.42626764327674</v>
+        <v>25.84884842167323</v>
       </c>
       <c r="G19">
-        <v>29.13226338608851</v>
+        <v>36.15670274844845</v>
       </c>
       <c r="H19">
-        <v>8.490411130258501</v>
+        <v>3.196326464137009</v>
       </c>
       <c r="I19">
-        <v>10.36809106137296</v>
+        <v>3.311008395991754</v>
+      </c>
+      <c r="J19">
+        <v>10.91271418393989</v>
       </c>
       <c r="K19">
+        <v>16.40660984243876</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.77869238482985</v>
+        <v>8.143254655938037</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>11.77056046247449</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.71606609385744</v>
+        <v>27.25620079376984</v>
       </c>
       <c r="C20">
-        <v>19.63917817773812</v>
+        <v>17.86577159777596</v>
       </c>
       <c r="D20">
-        <v>3.861710924189458</v>
+        <v>4.027350245203763</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>21.78452325397438</v>
+        <v>27.82161200847847</v>
       </c>
       <c r="G20">
-        <v>29.70326836268438</v>
+        <v>39.58606325661795</v>
       </c>
       <c r="H20">
-        <v>8.549744630754235</v>
+        <v>2.328535601268519</v>
       </c>
       <c r="I20">
-        <v>10.37848109076564</v>
+        <v>3.460752873891372</v>
+      </c>
+      <c r="J20">
+        <v>11.59068097366293</v>
       </c>
       <c r="K20">
+        <v>17.802200465463</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.74619439307017</v>
+        <v>10.1552465986063</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.61085570041537</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.28146652106277</v>
+        <v>29.00612099294156</v>
       </c>
       <c r="C21">
-        <v>20.81618666651912</v>
+        <v>18.77150899537196</v>
       </c>
       <c r="D21">
-        <v>3.993971718767736</v>
+        <v>4.071032103354302</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>22.98669742428291</v>
+        <v>29.27485424710214</v>
       </c>
       <c r="G21">
-        <v>31.68487919540954</v>
+        <v>41.86974043126904</v>
       </c>
       <c r="H21">
-        <v>8.761973609185791</v>
+        <v>2.625178415216359</v>
       </c>
       <c r="I21">
-        <v>10.44517162795357</v>
+        <v>3.717661029925085</v>
+      </c>
+      <c r="J21">
+        <v>11.95659644146918</v>
       </c>
       <c r="K21">
+        <v>18.28675004587841</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.64282398425278</v>
+        <v>10.7559405625372</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.41880780737787</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.26339602299725</v>
+        <v>30.07792069253539</v>
       </c>
       <c r="C22">
-        <v>21.55597369346721</v>
+        <v>19.36517752223333</v>
       </c>
       <c r="D22">
-        <v>4.078144126376596</v>
+        <v>4.102313196744276</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>23.85075756092007</v>
+        <v>30.1689117726647</v>
       </c>
       <c r="G22">
-        <v>32.96504484496406</v>
+        <v>43.2605050998155</v>
       </c>
       <c r="H22">
-        <v>8.91049170059452</v>
+        <v>2.808714890163643</v>
       </c>
       <c r="I22">
-        <v>10.51398018778851</v>
+        <v>3.877294967864285</v>
+      </c>
+      <c r="J22">
+        <v>12.1824657403155</v>
       </c>
       <c r="K22">
+        <v>18.57457461967007</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.57981556737352</v>
+        <v>11.04639500840449</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.29620228397134</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.743054607257</v>
+        <v>29.52916153449241</v>
       </c>
       <c r="C23">
-        <v>21.16380541809561</v>
+        <v>19.03253610156907</v>
       </c>
       <c r="D23">
-        <v>4.033431424815267</v>
+        <v>4.082571392045824</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>23.36542971949268</v>
+        <v>29.72738300431257</v>
       </c>
       <c r="G23">
-        <v>32.28315649514398</v>
+        <v>42.58155762260971</v>
       </c>
       <c r="H23">
-        <v>8.830313355322353</v>
+        <v>2.712302968879669</v>
       </c>
       <c r="I23">
-        <v>10.47485207780391</v>
+        <v>3.790035479360825</v>
+      </c>
+      <c r="J23">
+        <v>12.07500414165792</v>
       </c>
       <c r="K23">
+        <v>18.45043881754632</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.61301361259031</v>
+        <v>10.89297325446026</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.35987199557871</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.68977871347483</v>
+        <v>27.32302448363745</v>
       </c>
       <c r="C24">
-        <v>19.61943792805413</v>
+        <v>17.76054957283375</v>
       </c>
       <c r="D24">
-        <v>3.859511914722102</v>
+        <v>4.010949400974135</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>21.76485372781353</v>
+        <v>27.96911757156227</v>
       </c>
       <c r="G24">
-        <v>29.6706286050139</v>
+        <v>39.85371360751746</v>
       </c>
       <c r="H24">
-        <v>8.546438453592</v>
+        <v>2.338506567215167</v>
       </c>
       <c r="I24">
-        <v>10.37779497016805</v>
+        <v>3.458259765480029</v>
+      </c>
+      <c r="J24">
+        <v>11.64930477684947</v>
       </c>
       <c r="K24">
+        <v>17.93868626314491</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.74795765584839</v>
+        <v>10.29222389288467</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.60592016690522</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.29524441087116</v>
+        <v>24.73134847520168</v>
       </c>
       <c r="C25">
-        <v>17.82482408984787</v>
+        <v>16.30115586890952</v>
       </c>
       <c r="D25">
-        <v>3.662668639520581</v>
+        <v>3.929496768960551</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>20.0491339020066</v>
+        <v>26.01086465123927</v>
       </c>
       <c r="G25">
-        <v>26.95310296384629</v>
+        <v>36.78983118830681</v>
       </c>
       <c r="H25">
-        <v>8.280906810581207</v>
+        <v>1.920046969397063</v>
       </c>
       <c r="I25">
-        <v>10.3712711493617</v>
+        <v>3.090430524431042</v>
+      </c>
+      <c r="J25">
+        <v>11.19676089381972</v>
       </c>
       <c r="K25">
+        <v>17.40130812699754</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.91171657363058</v>
+        <v>9.605667036367045</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.87600606809347</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.69355966839445</v>
+        <v>22.06785343953426</v>
       </c>
       <c r="C2">
-        <v>15.09930388627265</v>
+        <v>15.48044229049955</v>
       </c>
       <c r="D2">
-        <v>3.858664686853291</v>
+        <v>3.943440653978517</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.62017836719498</v>
+        <v>23.49537294812056</v>
       </c>
       <c r="G2">
-        <v>34.61335682666436</v>
+        <v>32.08336822238267</v>
       </c>
       <c r="H2">
-        <v>1.60113186807128</v>
+        <v>1.61180500096695</v>
       </c>
       <c r="I2">
-        <v>2.804015458617058</v>
+        <v>2.818180253713467</v>
       </c>
       <c r="J2">
-        <v>10.90533092681454</v>
+        <v>11.0156430466989</v>
       </c>
       <c r="K2">
-        <v>17.09578093135398</v>
+        <v>16.12368484519797</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.84315753252289</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.18470508589655</v>
       </c>
       <c r="N2">
-        <v>9.070501569226337</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.07727549270773</v>
+        <v>9.077517241338695</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.07020863293674</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.19574146057265</v>
+        <v>20.62192674565365</v>
       </c>
       <c r="C3">
-        <v>14.26507892429497</v>
+        <v>14.56421583196178</v>
       </c>
       <c r="D3">
-        <v>3.812831769698681</v>
+        <v>3.868607272064798</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.60035453786775</v>
+        <v>22.60247010190945</v>
       </c>
       <c r="G3">
-        <v>32.98980983199205</v>
+        <v>30.67321000609867</v>
       </c>
       <c r="H3">
-        <v>1.75202227068499</v>
+        <v>1.720020099270636</v>
       </c>
       <c r="I3">
-        <v>2.605833825534199</v>
+        <v>2.644959495569059</v>
       </c>
       <c r="J3">
-        <v>10.69287661821311</v>
+        <v>10.82119347270016</v>
       </c>
       <c r="K3">
-        <v>16.85278942665402</v>
+        <v>15.97888705794627</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.87514282389067</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.911083714755625</v>
       </c>
       <c r="N3">
-        <v>8.687662092237382</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.21832023459998</v>
+        <v>8.708710726275836</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.18423523259711</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.23143842651629</v>
+        <v>19.69483029955714</v>
       </c>
       <c r="C4">
-        <v>13.73056990748929</v>
+        <v>13.97601750648189</v>
       </c>
       <c r="D4">
-        <v>3.783783671507933</v>
+        <v>3.821593725901965</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.96245370590832</v>
+        <v>22.04355632567586</v>
       </c>
       <c r="G4">
-        <v>31.96623156238949</v>
+        <v>29.78707144706413</v>
       </c>
       <c r="H4">
-        <v>1.900076610665682</v>
+        <v>1.85482885457674</v>
       </c>
       <c r="I4">
-        <v>2.480768451498772</v>
+        <v>2.535712468137434</v>
       </c>
       <c r="J4">
-        <v>10.56431606501569</v>
+        <v>10.70072564075748</v>
       </c>
       <c r="K4">
-        <v>16.70606659521227</v>
+        <v>15.89154452993753</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.89194201962757</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.762695508057636</v>
       </c>
       <c r="N4">
-        <v>8.443618155413141</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.30651043398905</v>
+        <v>8.473889466520875</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.25649036876521</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.81785197935713</v>
+        <v>19.30065488145601</v>
       </c>
       <c r="C5">
-        <v>13.51314038207616</v>
+        <v>13.73608437426985</v>
       </c>
       <c r="D5">
-        <v>3.772450988675614</v>
+        <v>3.803058734125785</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.68885548411606</v>
+        <v>21.80269437268358</v>
       </c>
       <c r="G5">
-        <v>31.52278601783979</v>
+        <v>29.40159297776236</v>
       </c>
       <c r="H5">
-        <v>1.962083233260332</v>
+        <v>1.911331727285307</v>
       </c>
       <c r="I5">
-        <v>2.520370207596367</v>
+        <v>2.491403330687426</v>
       </c>
       <c r="J5">
-        <v>10.50863060172764</v>
+        <v>10.64779051982016</v>
       </c>
       <c r="K5">
-        <v>16.638582818304</v>
+        <v>15.8485475479295</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.89161270761966</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.702049352580582</v>
       </c>
       <c r="N5">
-        <v>8.341715745871042</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.34292848688241</v>
+        <v>8.375918364260574</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.28682487952887</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.74008867898161</v>
+        <v>19.22634468426059</v>
       </c>
       <c r="C6">
-        <v>13.48398233906548</v>
+        <v>13.70338098975232</v>
       </c>
       <c r="D6">
-        <v>3.771454880719563</v>
+        <v>3.801051578788905</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.62976135558494</v>
+        <v>21.74948210401278</v>
       </c>
       <c r="G6">
-        <v>31.4241661153468</v>
+        <v>29.31323620253221</v>
       </c>
       <c r="H6">
-        <v>1.972945321337947</v>
+        <v>1.921245856208822</v>
       </c>
       <c r="I6">
-        <v>2.534343627891677</v>
+        <v>2.485424904327644</v>
       </c>
       <c r="J6">
-        <v>10.49476085319503</v>
+        <v>10.63457564220125</v>
       </c>
       <c r="K6">
-        <v>16.61723284126687</v>
+        <v>15.83191822908341</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.88363795553166</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.685718986429338</v>
       </c>
       <c r="N6">
-        <v>8.324336086861832</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.34909710353972</v>
+        <v>8.359219700615386</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.29230759015081</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.20391508220645</v>
+        <v>19.65881478516327</v>
       </c>
       <c r="C7">
-        <v>13.74717584841254</v>
+        <v>13.97925344146772</v>
       </c>
       <c r="D7">
-        <v>3.786103072234499</v>
+        <v>3.826519541503281</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.92236904818822</v>
+        <v>21.9808428579292</v>
       </c>
       <c r="G7">
-        <v>31.89408828033261</v>
+        <v>29.80367885087025</v>
       </c>
       <c r="H7">
-        <v>1.902221628571059</v>
+        <v>1.857419704807969</v>
       </c>
       <c r="I7">
-        <v>2.482384851333884</v>
+        <v>2.537762895385331</v>
       </c>
       <c r="J7">
-        <v>10.55092967576536</v>
+        <v>10.63153388568464</v>
       </c>
       <c r="K7">
-        <v>16.67746662377046</v>
+        <v>15.85405112566409</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.86178590606851</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.73573597104674</v>
       </c>
       <c r="N7">
-        <v>8.441374789573718</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.30734071784815</v>
+        <v>8.471347737928077</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.25872752118413</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.15199990743986</v>
+        <v>21.52661664467623</v>
       </c>
       <c r="C8">
-        <v>14.84055174464599</v>
+        <v>15.1523387141682</v>
       </c>
       <c r="D8">
-        <v>3.846392815989128</v>
+        <v>3.929297243705641</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.22535198604306</v>
+        <v>23.06878139020014</v>
       </c>
       <c r="G8">
-        <v>33.97666375982264</v>
+        <v>31.79324002638736</v>
       </c>
       <c r="H8">
-        <v>1.599975883921149</v>
+        <v>1.583603065094737</v>
       </c>
       <c r="I8">
-        <v>2.738560311410837</v>
+        <v>2.76033037421274</v>
       </c>
       <c r="J8">
-        <v>10.81538405977477</v>
+        <v>10.75049355984878</v>
       </c>
       <c r="K8">
-        <v>16.97549632910684</v>
+        <v>16.00385629595046</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.80062838880055</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.03385067278172</v>
       </c>
       <c r="N8">
-        <v>8.939334707672504</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.12638390699806</v>
+        <v>8.949922808600801</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.11365642117849</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.66505887060141</v>
+        <v>24.84243832960344</v>
       </c>
       <c r="C9">
-        <v>16.77491389648546</v>
+        <v>17.26535892999069</v>
       </c>
       <c r="D9">
-        <v>3.952814763887825</v>
+        <v>4.108442170710808</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.73509101928723</v>
+        <v>25.2556955380794</v>
       </c>
       <c r="G9">
-        <v>37.93912780988018</v>
+        <v>35.30383250441725</v>
       </c>
       <c r="H9">
-        <v>2.065170969113252</v>
+        <v>2.030936373286686</v>
       </c>
       <c r="I9">
-        <v>3.212733325011203</v>
+        <v>3.173185417089589</v>
       </c>
       <c r="J9">
-        <v>11.36935958360321</v>
+        <v>11.20068359445635</v>
       </c>
       <c r="K9">
-        <v>17.62747758837706</v>
+        <v>16.3964207584454</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.7260677140442</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.82568749452869</v>
       </c>
       <c r="N9">
-        <v>9.843266214481572</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.7825136313979</v>
+        <v>9.821753819606338</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.84198333353867</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.87515428783681</v>
+        <v>26.8878063949814</v>
       </c>
       <c r="C10">
-        <v>18.17200182523281</v>
+        <v>18.70882983771622</v>
       </c>
       <c r="D10">
-        <v>4.041435850072049</v>
+        <v>4.264072561288915</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.33929260549808</v>
+        <v>26.5336050910691</v>
       </c>
       <c r="G10">
-        <v>40.40429701804295</v>
+        <v>37.91177891543332</v>
       </c>
       <c r="H10">
-        <v>2.427778491114843</v>
+        <v>2.356231954191417</v>
       </c>
       <c r="I10">
-        <v>3.539826064239642</v>
+        <v>3.455593692604019</v>
       </c>
       <c r="J10">
-        <v>11.72206685870752</v>
+        <v>11.175587417775</v>
       </c>
       <c r="K10">
-        <v>17.98183369276756</v>
+        <v>16.51918513025215</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.53599173275985</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.33266572253943</v>
       </c>
       <c r="N10">
-        <v>10.27748359545875</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.54477900906817</v>
+        <v>10.2333116249774</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.67378826581238</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.10098641017018</v>
+        <v>27.05584039184923</v>
       </c>
       <c r="C11">
-        <v>19.47149363598586</v>
+        <v>19.86823771010766</v>
       </c>
       <c r="D11">
-        <v>4.217474628926708</v>
+        <v>4.506029717731105</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.75501190535121</v>
+        <v>25.75802364792585</v>
       </c>
       <c r="G11">
-        <v>39.19022347850895</v>
+        <v>37.72380657398553</v>
       </c>
       <c r="H11">
-        <v>3.185511789171924</v>
+        <v>3.121947048796356</v>
       </c>
       <c r="I11">
-        <v>3.627062581197215</v>
+        <v>3.528960973749258</v>
       </c>
       <c r="J11">
-        <v>11.38998013095267</v>
+        <v>10.26547422340849</v>
       </c>
       <c r="K11">
-        <v>17.0463644718052</v>
+        <v>15.55429488404861</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.74937904574752</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.71931800723772</v>
       </c>
       <c r="N11">
-        <v>8.953782653384849</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.53379521226178</v>
+        <v>8.897159521315652</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.75346733443909</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.8646140867993</v>
+        <v>26.82892656967202</v>
       </c>
       <c r="C12">
-        <v>20.27262554016864</v>
+        <v>20.57328279304004</v>
       </c>
       <c r="D12">
-        <v>4.359717279530215</v>
+        <v>4.678507220519428</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.95737319896469</v>
+        <v>24.93793145180529</v>
       </c>
       <c r="G12">
-        <v>37.7097639791122</v>
+        <v>36.83336489179214</v>
       </c>
       <c r="H12">
-        <v>4.353909265890534</v>
+        <v>4.307405868803437</v>
       </c>
       <c r="I12">
-        <v>3.635485221987658</v>
+        <v>3.534519908816893</v>
       </c>
       <c r="J12">
-        <v>11.04496265784994</v>
+        <v>9.708684502740301</v>
       </c>
       <c r="K12">
-        <v>16.21577207361364</v>
+        <v>14.78912333195508</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.19397383827427</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.14112820216695</v>
       </c>
       <c r="N12">
-        <v>7.826334843164644</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.60452677322941</v>
+        <v>7.763178847498153</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.87677224585432</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.22563804315477</v>
+        <v>26.27076035437978</v>
       </c>
       <c r="C13">
-        <v>20.78359924187907</v>
+        <v>21.04529644238675</v>
       </c>
       <c r="D13">
-        <v>4.486504849045103</v>
+        <v>4.800431606332803</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.87424837840653</v>
+        <v>24.01499286048176</v>
       </c>
       <c r="G13">
-        <v>35.80101041416056</v>
+        <v>35.04704972978966</v>
       </c>
       <c r="H13">
-        <v>5.622046013249246</v>
+        <v>5.590159785593745</v>
       </c>
       <c r="I13">
-        <v>3.585962535727345</v>
+        <v>3.493255332786509</v>
       </c>
       <c r="J13">
-        <v>10.64524448149238</v>
+        <v>9.4690354070836</v>
       </c>
       <c r="K13">
-        <v>15.37015648777837</v>
+        <v>14.11174697596832</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.75684050996337</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.54133983614385</v>
       </c>
       <c r="N13">
-        <v>6.803065152589364</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.73682843518445</v>
+        <v>6.739556594112759</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.02560139332417</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.58200825354983</v>
+        <v>25.7164777859988</v>
       </c>
       <c r="C14">
-        <v>21.02294938188903</v>
+        <v>21.28257225833491</v>
       </c>
       <c r="D14">
-        <v>4.570408779405991</v>
+        <v>4.863782313346403</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.96490491660233</v>
+        <v>23.30038046325269</v>
       </c>
       <c r="G14">
-        <v>34.22972810712474</v>
+        <v>33.35801397279803</v>
       </c>
       <c r="H14">
-        <v>6.544098794824961</v>
+        <v>6.520536353985396</v>
       </c>
       <c r="I14">
-        <v>3.526230719979992</v>
+        <v>3.444542778954786</v>
       </c>
       <c r="J14">
-        <v>10.33560226172095</v>
+        <v>9.427139658783922</v>
       </c>
       <c r="K14">
-        <v>14.76719280038911</v>
+        <v>13.67000413423512</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.49474123638207</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.10684936024416</v>
       </c>
       <c r="N14">
-        <v>6.183678430296887</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.85878201539517</v>
+        <v>6.123767939395655</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.14024059283554</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.32975170767176</v>
+        <v>25.50045121430322</v>
       </c>
       <c r="C15">
-        <v>21.02561112967958</v>
+        <v>21.29595187821579</v>
       </c>
       <c r="D15">
-        <v>4.587088628156988</v>
+        <v>4.868588063798422</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.66959242707114</v>
+        <v>23.08832274231319</v>
       </c>
       <c r="G15">
-        <v>33.73133310614816</v>
+        <v>32.74401300937435</v>
       </c>
       <c r="H15">
-        <v>6.753789226559737</v>
+        <v>6.732596319815245</v>
       </c>
       <c r="I15">
-        <v>3.4995239942823</v>
+        <v>3.423419782962255</v>
       </c>
       <c r="J15">
-        <v>10.24504041061455</v>
+        <v>9.468131765464911</v>
       </c>
       <c r="K15">
-        <v>14.60985426539906</v>
+        <v>13.57034993189555</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.44467873918395</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.990274500784558</v>
       </c>
       <c r="N15">
-        <v>6.046611609499623</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.89826403582555</v>
+        <v>5.989455517259606</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.17081709717023</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.49311437256254</v>
+        <v>24.78537261738759</v>
       </c>
       <c r="C16">
-        <v>20.39804893641718</v>
+        <v>20.75935224205098</v>
       </c>
       <c r="D16">
-        <v>4.524238629922016</v>
+        <v>4.749081535711774</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.11924758320869</v>
+        <v>22.83452660474558</v>
       </c>
       <c r="G16">
-        <v>32.90307301969229</v>
+        <v>31.19850096882809</v>
       </c>
       <c r="H16">
-        <v>6.479949765475139</v>
+        <v>6.465032850443642</v>
       </c>
       <c r="I16">
-        <v>3.371419112950301</v>
+        <v>3.318288197035658</v>
       </c>
       <c r="J16">
-        <v>10.15437048319346</v>
+        <v>9.929278823702511</v>
       </c>
       <c r="K16">
-        <v>14.60254263958985</v>
+        <v>13.71063172366128</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.61862205497655</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.952487576202895</v>
       </c>
       <c r="N16">
-        <v>6.020758362781698</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.95694370626493</v>
+        <v>5.979376465688555</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.17049730713761</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.19726997224351</v>
+        <v>24.52327098686124</v>
       </c>
       <c r="C17">
-        <v>19.77197587501123</v>
+        <v>20.18619218095096</v>
       </c>
       <c r="D17">
-        <v>4.429801390118929</v>
+        <v>4.629032166955883</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.19885506248287</v>
+        <v>23.00431208051578</v>
       </c>
       <c r="G17">
-        <v>33.13843516507207</v>
+        <v>31.05601255730174</v>
       </c>
       <c r="H17">
-        <v>5.729839951420955</v>
+        <v>5.716556547596053</v>
       </c>
       <c r="I17">
-        <v>3.304710154189215</v>
+        <v>3.262681098566186</v>
       </c>
       <c r="J17">
-        <v>10.25317902362774</v>
+        <v>10.24444641883094</v>
       </c>
       <c r="K17">
-        <v>14.91753492250355</v>
+        <v>14.04210000090352</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.89281654324463</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.14294133352151</v>
       </c>
       <c r="N17">
-        <v>6.310805697836786</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.93877440318873</v>
+        <v>6.278013116043256</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.11850749555244</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.36249061659863</v>
+        <v>24.66399139800447</v>
       </c>
       <c r="C18">
-        <v>19.07158589743266</v>
+        <v>19.53411363504374</v>
       </c>
       <c r="D18">
-        <v>4.300602860869246</v>
+        <v>4.489289176716063</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.85347630480621</v>
+        <v>23.62448313935822</v>
       </c>
       <c r="G18">
-        <v>34.36122483356125</v>
+        <v>31.99663883260829</v>
       </c>
       <c r="H18">
-        <v>4.523606242785048</v>
+        <v>4.507649804011439</v>
       </c>
       <c r="I18">
-        <v>3.283589775971516</v>
+        <v>3.243140299427776</v>
       </c>
       <c r="J18">
-        <v>10.53282391683916</v>
+        <v>10.5781747742474</v>
       </c>
       <c r="K18">
-        <v>15.56895845940954</v>
+        <v>14.6202033708738</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.32191309012192</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.57808584894039</v>
       </c>
       <c r="N18">
-        <v>7.025566974312279</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.86272083149913</v>
+        <v>6.996564616726324</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.0170233703965</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.85177575014392</v>
+        <v>25.09169468386386</v>
       </c>
       <c r="C19">
-        <v>18.41215994312366</v>
+        <v>18.92348587903591</v>
       </c>
       <c r="D19">
-        <v>4.170254433662074</v>
+        <v>4.355907465649048</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.84884842167323</v>
+        <v>24.50992017039031</v>
       </c>
       <c r="G19">
-        <v>36.15670274844845</v>
+        <v>33.54625074726769</v>
       </c>
       <c r="H19">
-        <v>3.196326464137009</v>
+        <v>3.170546386411931</v>
       </c>
       <c r="I19">
-        <v>3.311008395991754</v>
+        <v>3.266852942251836</v>
       </c>
       <c r="J19">
-        <v>10.91271418393989</v>
+        <v>10.92407633072749</v>
       </c>
       <c r="K19">
-        <v>16.40660984243876</v>
+        <v>15.33015118202466</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.82996045159191</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.15159703738403</v>
       </c>
       <c r="N19">
-        <v>8.143254655938037</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.77056046247449</v>
+        <v>8.114392203534528</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.90228832883823</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.25620079376984</v>
+        <v>26.33876733343325</v>
       </c>
       <c r="C20">
-        <v>17.86577159777596</v>
+        <v>18.43117693151934</v>
       </c>
       <c r="D20">
-        <v>4.027350245203763</v>
+        <v>4.225981971811812</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.82161200847847</v>
+        <v>26.17725840462297</v>
       </c>
       <c r="G20">
-        <v>39.58606325661795</v>
+        <v>36.8067292882413</v>
       </c>
       <c r="H20">
-        <v>2.328535601268519</v>
+        <v>2.268698178691025</v>
       </c>
       <c r="I20">
-        <v>3.460752873891372</v>
+        <v>3.393890573571436</v>
       </c>
       <c r="J20">
-        <v>11.59068097366293</v>
+        <v>11.3310884223781</v>
       </c>
       <c r="K20">
-        <v>17.802200465463</v>
+        <v>16.4439822697581</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.556175293723</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.16157700244149</v>
       </c>
       <c r="N20">
-        <v>10.1552465986063</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.61085570041537</v>
+        <v>10.11814107949991</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.7208621270512</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.00612099294156</v>
+        <v>27.82146208361176</v>
       </c>
       <c r="C21">
-        <v>18.77150899537196</v>
+        <v>19.17886783111499</v>
       </c>
       <c r="D21">
-        <v>4.071032103354302</v>
+        <v>4.36255941146673</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.27485424710214</v>
+        <v>26.98280766614122</v>
       </c>
       <c r="G21">
-        <v>41.86974043126904</v>
+        <v>40.46319467237544</v>
       </c>
       <c r="H21">
-        <v>2.625178415216359</v>
+        <v>2.526509670578448</v>
       </c>
       <c r="I21">
-        <v>3.717661029925085</v>
+        <v>3.604264124188441</v>
       </c>
       <c r="J21">
-        <v>11.95659644146918</v>
+        <v>10.44949049350411</v>
       </c>
       <c r="K21">
-        <v>18.28675004587841</v>
+        <v>16.5258235104808</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.40096680291306</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.55197610381818</v>
       </c>
       <c r="N21">
-        <v>10.7559405625372</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.41880780737787</v>
+        <v>10.69667292213015</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.59998693871441</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.07792069253539</v>
+        <v>28.72074270839603</v>
       </c>
       <c r="C22">
-        <v>19.36517752223333</v>
+        <v>19.65787448358355</v>
       </c>
       <c r="D22">
-        <v>4.102313196744276</v>
+        <v>4.458580974665491</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.1689117726647</v>
+        <v>27.44634358412577</v>
       </c>
       <c r="G22">
-        <v>43.2605050998155</v>
+        <v>42.82534027555508</v>
       </c>
       <c r="H22">
-        <v>2.808714890163643</v>
+        <v>2.685274648813313</v>
       </c>
       <c r="I22">
-        <v>3.877294967864285</v>
+        <v>3.732868835680597</v>
       </c>
       <c r="J22">
-        <v>12.1824657403155</v>
+        <v>9.822528874239669</v>
       </c>
       <c r="K22">
-        <v>18.57457461967007</v>
+        <v>16.54356436626417</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.27411666587995</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.78300321922639</v>
       </c>
       <c r="N22">
-        <v>11.04639500840449</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.29620228397134</v>
+        <v>10.97316796712129</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.53040592708872</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.52916153449241</v>
+        <v>28.28069340178783</v>
       </c>
       <c r="C23">
-        <v>19.03253610156907</v>
+        <v>19.41255377017376</v>
       </c>
       <c r="D23">
-        <v>4.082571392045824</v>
+        <v>4.397059129162541</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.72738300431257</v>
+        <v>27.28428059650524</v>
       </c>
       <c r="G23">
-        <v>42.58155762260971</v>
+        <v>41.44821059505531</v>
       </c>
       <c r="H23">
-        <v>2.712302968879669</v>
+        <v>2.603022993311979</v>
       </c>
       <c r="I23">
-        <v>3.790035479360825</v>
+        <v>3.661987115355838</v>
       </c>
       <c r="J23">
-        <v>12.07500414165792</v>
+        <v>10.29209639747149</v>
       </c>
       <c r="K23">
-        <v>18.45043881754632</v>
+        <v>16.58825004972197</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.37868669082015</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.70422750020106</v>
       </c>
       <c r="N23">
-        <v>10.89297325446026</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.35987199557871</v>
+        <v>10.8277132989667</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.56016326103715</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.32302448363745</v>
+        <v>26.40004820197409</v>
       </c>
       <c r="C24">
-        <v>17.76054957283375</v>
+        <v>18.3302311970857</v>
       </c>
       <c r="D24">
-        <v>4.010949400974135</v>
+        <v>4.206587686922894</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.96911757156227</v>
+        <v>26.31582798783074</v>
       </c>
       <c r="G24">
-        <v>39.85371360751746</v>
+        <v>37.03796045207977</v>
       </c>
       <c r="H24">
-        <v>2.338506567215167</v>
+        <v>2.278137658721326</v>
       </c>
       <c r="I24">
-        <v>3.458259765480029</v>
+        <v>3.388852092641617</v>
       </c>
       <c r="J24">
-        <v>11.64930477684947</v>
+        <v>11.3923875821715</v>
       </c>
       <c r="K24">
-        <v>17.93868626314491</v>
+        <v>16.56622697642815</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.6460056921544</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.25664707313004</v>
       </c>
       <c r="N24">
-        <v>10.29222389288467</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.60592016690522</v>
+        <v>10.25515512808505</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.70926926064981</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.73134847520168</v>
+        <v>23.97214181963047</v>
       </c>
       <c r="C25">
-        <v>16.30115586890952</v>
+        <v>16.76382648589695</v>
       </c>
       <c r="D25">
-        <v>3.929496768960551</v>
+        <v>4.063455056266521</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.01086465123927</v>
+        <v>24.65002094571824</v>
       </c>
       <c r="G25">
-        <v>36.78983118830681</v>
+        <v>34.16471893551397</v>
       </c>
       <c r="H25">
-        <v>1.920046969397063</v>
+        <v>1.900069482395428</v>
       </c>
       <c r="I25">
-        <v>3.090430524431042</v>
+        <v>3.069954289370897</v>
       </c>
       <c r="J25">
-        <v>11.19676089381972</v>
+        <v>11.13603081059162</v>
       </c>
       <c r="K25">
-        <v>17.40130812699754</v>
+        <v>16.25939832902105</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.72713370954964</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.57448758565986</v>
       </c>
       <c r="N25">
-        <v>9.605667036367045</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.87600606809347</v>
+        <v>9.592951445493808</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.91589071778832</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
